--- a/explore/openCyto/compManual/Manual_OC_comp_01_15_18_V2_count_freqLP_newSeed.xlsx
+++ b/explore/openCyto/compManual/Manual_OC_comp_01_15_18_V2_count_freqLP_newSeed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="27660" windowHeight="16820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3000" yWindow="460" windowWidth="27660" windowHeight="16820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="previous" sheetId="1" r:id="rId1"/>
@@ -34093,13 +34093,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S596"/>
+  <dimension ref="A1:T596"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -34158,7 +34163,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -34217,8 +34222,12 @@
         <f>E2-previous!E2</f>
         <v>-3.3852764557706916E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <f>F2-previous!F2</f>
+        <v>1.2603188754300998E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -34277,8 +34286,12 @@
         <f>E3-previous!E3</f>
         <v>-7.7903875114704313E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <f>F3-previous!F3</f>
+        <v>8.6695806090109073E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -34337,8 +34350,12 @@
         <f>E4-previous!E4</f>
         <v>-4.3543161105796813E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <f>F4-previous!F4</f>
+        <v>6.6009373389297465E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -34397,8 +34414,12 @@
         <f>E5-previous!E5</f>
         <v>2.7172192310940257E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <f>F5-previous!F5</f>
+        <v>5.3783479539704082E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -34457,8 +34478,12 @@
         <f>E6-previous!E6</f>
         <v>1.7372421582295683E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <f>F6-previous!F6</f>
+        <v>-1.2576706396240089E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -34517,8 +34542,12 @@
         <f>E7-previous!E7</f>
         <v>7.6389643968799437E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <f>F7-previous!F7</f>
+        <v>-3.2550701316540476E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -34577,8 +34606,12 @@
         <f>E8-previous!E8</f>
         <v>-7.5292056182607592E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <f>F8-previous!F8</f>
+        <v>-7.549057231004408E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -34637,8 +34670,12 @@
         <f>E9-previous!E9</f>
         <v>-2.7768243887993371E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <f>F9-previous!F9</f>
+        <v>-6.9758141415909858E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -34697,8 +34734,12 @@
         <f>E10-previous!E10</f>
         <v>-1.2200762229229722E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <f>F10-previous!F10</f>
+        <v>-1.6982093326799452E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -34757,8 +34798,12 @@
         <f>E11-previous!E11</f>
         <v>-3.7662116860071038E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <f>F11-previous!F11</f>
+        <v>2.1002604329001251E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -34817,8 +34862,12 @@
         <f>E12-previous!E12</f>
         <v>-1.0758772526919813E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <f>F12-previous!F12</f>
+        <v>-1.8784091319601348E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -34877,8 +34926,12 @@
         <f>E13-previous!E13</f>
         <v>-3.1096064687496927E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <f>F13-previous!F13</f>
+        <v>4.0204985429792561E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -34937,8 +34990,12 @@
         <f>E14-previous!E14</f>
         <v>-4.8183892440989418E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <f>F14-previous!F14</f>
+        <v>-1.8602585773497271E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -34997,8 +35054,12 @@
         <f>E15-previous!E15</f>
         <v>2.2529321678010916E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <f>F15-previous!F15</f>
+        <v>-1.4449301015018179E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -35057,8 +35118,12 @@
         <f>E16-previous!E16</f>
         <v>-2.5400060741498365E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <f>F16-previous!F16</f>
+        <v>-4.6806506139995818E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -35117,8 +35182,12 @@
         <f>E17-previous!E17</f>
         <v>-4.8732846358601201E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <f>F17-previous!F17</f>
+        <v>-5.5806920074208399E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -35177,8 +35246,12 @@
         <f>E18-previous!E18</f>
         <v>-1.631283182101928E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18">
+        <f>F18-previous!F18</f>
+        <v>-1.842087469919873E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -35237,8 +35310,12 @@
         <f>E19-previous!E19</f>
         <v>1.1494509657750118E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19">
+        <f>F19-previous!F19</f>
+        <v>1.4341778384650006E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -35297,8 +35374,12 @@
         <f>E20-previous!E20</f>
         <v>-0.172439004677577</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T20">
+        <f>F20-previous!F20</f>
+        <v>-9.7129951715739987E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -35357,8 +35438,12 @@
         <f>E21-previous!E21</f>
         <v>-4.8126889329980216E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T21">
+        <f>F21-previous!F21</f>
+        <v>-1.8623725057898E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -35417,8 +35502,12 @@
         <f>E22-previous!E22</f>
         <v>-1.3653186049089605E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T22">
+        <f>F22-previous!F22</f>
+        <v>-1.1102242710799848E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -35477,8 +35566,12 @@
         <f>E23-previous!E23</f>
         <v>-7.0774227520498112E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T23">
+        <f>F23-previous!F23</f>
+        <v>-1.5301897439690126E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -35537,8 +35630,12 @@
         <f>E24-previous!E24</f>
         <v>-1.1945166001703367E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T24">
+        <f>F24-previous!F24</f>
+        <v>6.0920977313028146E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -35597,8 +35694,12 @@
         <f>E25-previous!E25</f>
         <v>-2.7758350579719648E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <f>F25-previous!F25</f>
+        <v>-1.7341994331300237E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -35657,8 +35758,12 @@
         <f>E26-previous!E26</f>
         <v>-4.6443922755401434E-4</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T26">
+        <f>F26-previous!F26</f>
+        <v>8.4194378326696295E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -35717,8 +35822,12 @@
         <f>E27-previous!E27</f>
         <v>-1.0888840574013958E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T27">
+        <f>F27-previous!F27</f>
+        <v>-2.0403448231330001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -35777,8 +35886,12 @@
         <f>E28-previous!E28</f>
         <v>-8.0958966699329893E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T28">
+        <f>F28-previous!F28</f>
+        <v>-3.1203603694930027E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -35837,8 +35950,12 @@
         <f>E29-previous!E29</f>
         <v>2.8115059659251096E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <f>F29-previous!F29</f>
+        <v>2.948289422466599E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -35897,8 +36014,12 @@
         <f>E30-previous!E30</f>
         <v>-3.0012529080299943E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T30">
+        <f>F30-previous!F30</f>
+        <v>9.7211470969393865E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -35957,8 +36078,12 @@
         <f>E31-previous!E31</f>
         <v>5.4179064398607313E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T31">
+        <f>F31-previous!F31</f>
+        <v>1.542181977723045E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -36017,8 +36142,12 @@
         <f>E32-previous!E32</f>
         <v>-3.3463188106197528E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32">
+        <f>F32-previous!F32</f>
+        <v>5.6694739967000363E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -36077,8 +36206,12 @@
         <f>E33-previous!E33</f>
         <v>1.4444817514229769E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33">
+        <f>F33-previous!F33</f>
+        <v>1.8364095332209507E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -36137,8 +36270,12 @@
         <f>E34-previous!E34</f>
         <v>2.8764707009190094E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34">
+        <f>F34-previous!F34</f>
+        <v>1.1500020851370474E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -36197,8 +36334,12 @@
         <f>E35-previous!E35</f>
         <v>-1.210636691389988E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35">
+        <f>F35-previous!F35</f>
+        <v>-1.7102223296729946E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
@@ -36257,8 +36398,12 @@
         <f>E36-previous!E36</f>
         <v>2.2249330721400007E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36">
+        <f>F36-previous!F36</f>
+        <v>2.0496113846202313E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -36317,8 +36462,12 @@
         <f>E37-previous!E37</f>
         <v>2.3435935895999016E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <f>F37-previous!F37</f>
+        <v>8.1014663919998231E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -36377,8 +36526,12 @@
         <f>E38-previous!E38</f>
         <v>8.5648114960301669E-4</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38">
+        <f>F38-previous!F38</f>
+        <v>1.7219151131040444E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -36437,8 +36590,12 @@
         <f>E39-previous!E39</f>
         <v>4.0637323900100109E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39">
+        <f>F39-previous!F39</f>
+        <v>-9.9018813975798592E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -36497,8 +36654,12 @@
         <f>E40-previous!E40</f>
         <v>2.0310773624598877E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40">
+        <f>F40-previous!F40</f>
+        <v>3.6123383026942513E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -36557,8 +36718,12 @@
         <f>E41-previous!E41</f>
         <v>4.3701728170697507E-6</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41">
+        <f>F41-previous!F41</f>
+        <v>3.4204549223693093E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -36617,8 +36782,12 @@
         <f>E42-previous!E42</f>
         <v>3.5967537399539395E-6</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42">
+        <f>F42-previous!F42</f>
+        <v>-1.733916121809953E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -36677,8 +36846,12 @@
         <f>E43-previous!E43</f>
         <v>-1.5857126799501131E-4</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43">
+        <f>F43-previous!F43</f>
+        <v>-1.3081739878519905E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -36737,8 +36910,12 @@
         <f>E44-previous!E44</f>
         <v>0.14355870279367899</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T44">
+        <f>F44-previous!F44</f>
+        <v>4.4339286389108001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -36797,8 +36974,12 @@
         <f>E45-previous!E45</f>
         <v>3.910562015158503E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T45">
+        <f>F45-previous!F45</f>
+        <v>2.2690094099792057E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
@@ -36857,8 +37038,12 @@
         <f>E46-previous!E46</f>
         <v>1.3512258088799189E-4</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T46">
+        <f>F46-previous!F46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -36917,8 +37102,12 @@
         <f>E47-previous!E47</f>
         <v>2.5096710475902562E-5</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T47">
+        <f>F47-previous!F47</f>
+        <v>1.1559440812103361E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -36977,8 +37166,12 @@
         <f>E48-previous!E48</f>
         <v>1.875193864735003E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48">
+        <f>F48-previous!F48</f>
+        <v>3.0876502624460622E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -37037,8 +37230,12 @@
         <f>E49-previous!E49</f>
         <v>1.382843908448006E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T49">
+        <f>F49-previous!F49</f>
+        <v>6.9067908348200424E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
@@ -37097,8 +37294,12 @@
         <f>E50-previous!E50</f>
         <v>-1.8296118562965979E-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T50">
+        <f>F50-previous!F50</f>
+        <v>-1.8305675163070023E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -37157,8 +37358,12 @@
         <f>E51-previous!E51</f>
         <v>3.0072656465041092E-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T51">
+        <f>F51-previous!F51</f>
+        <v>-6.7713138239600124E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
@@ -37217,8 +37422,12 @@
         <f>E52-previous!E52</f>
         <v>-3.4980764174075141E-5</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T52">
+        <f>F52-previous!F52</f>
+        <v>1.680208346319656E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -37277,8 +37486,12 @@
         <f>E53-previous!E53</f>
         <v>2.23082206480818E-5</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53">
+        <f>F53-previous!F53</f>
+        <v>1.4449353210932436E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -37337,8 +37550,12 @@
         <f>E54-previous!E54</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T54">
+        <f>F54-previous!F54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -37397,8 +37614,12 @@
         <f>E55-previous!E55</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T55">
+        <f>F55-previous!F55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -37457,8 +37678,12 @@
         <f>E56-previous!E56</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56">
+        <f>F56-previous!F56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -37517,8 +37742,12 @@
         <f>E57-previous!E57</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T57">
+        <f>F57-previous!F57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -37577,8 +37806,12 @@
         <f>E58-previous!E58</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T58">
+        <f>F58-previous!F58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -37637,8 +37870,12 @@
         <f>E59-previous!E59</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T59">
+        <f>F59-previous!F59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -37697,8 +37934,12 @@
         <f>E60-previous!E60</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T60">
+        <f>F60-previous!F60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -37757,8 +37998,12 @@
         <f>E61-previous!E61</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T61">
+        <f>F61-previous!F61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -37817,8 +38062,12 @@
         <f>E62-previous!E62</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T62">
+        <f>F62-previous!F62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -37877,8 +38126,12 @@
         <f>E63-previous!E63</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T63">
+        <f>F63-previous!F63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -37937,8 +38190,12 @@
         <f>E64-previous!E64</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T64">
+        <f>F64-previous!F64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
@@ -37997,8 +38254,12 @@
         <f>E65-previous!E65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T65">
+        <f>F65-previous!F65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -38057,8 +38318,12 @@
         <f>E66-previous!E66</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T66">
+        <f>F66-previous!F66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -38117,8 +38382,12 @@
         <f>E67-previous!E67</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T67">
+        <f>F67-previous!F67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -38177,8 +38446,12 @@
         <f>E68-previous!E68</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T68">
+        <f>F68-previous!F68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -38237,8 +38510,12 @@
         <f>E69-previous!E69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T69">
+        <f>F69-previous!F69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -38297,8 +38574,12 @@
         <f>E70-previous!E70</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T70">
+        <f>F70-previous!F70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -38357,8 +38638,12 @@
         <f>E71-previous!E71</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T71">
+        <f>F71-previous!F71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -38417,8 +38702,12 @@
         <f>E72-previous!E72</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T72">
+        <f>F72-previous!F72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -38477,8 +38766,12 @@
         <f>E73-previous!E73</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T73">
+        <f>F73-previous!F73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>69</v>
       </c>
@@ -38537,8 +38830,12 @@
         <f>E74-previous!E74</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T74">
+        <f>F74-previous!F74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
@@ -38597,8 +38894,12 @@
         <f>E75-previous!E75</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T75">
+        <f>F75-previous!F75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
@@ -38657,8 +38958,12 @@
         <f>E76-previous!E76</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T76">
+        <f>F76-previous!F76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>71</v>
       </c>
@@ -38717,8 +39022,12 @@
         <f>E77-previous!E77</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T77">
+        <f>F77-previous!F77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
@@ -38777,8 +39086,12 @@
         <f>E78-previous!E78</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T78">
+        <f>F78-previous!F78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>73</v>
       </c>
@@ -38837,8 +39150,12 @@
         <f>E79-previous!E79</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T79">
+        <f>F79-previous!F79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>73</v>
       </c>
@@ -38897,8 +39214,12 @@
         <f>E80-previous!E80</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T80">
+        <f>F80-previous!F80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>75</v>
       </c>
@@ -38957,8 +39278,12 @@
         <f>E81-previous!E81</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T81">
+        <f>F81-previous!F81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>75</v>
       </c>
@@ -39017,8 +39342,12 @@
         <f>E82-previous!E82</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T82">
+        <f>F82-previous!F82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>75</v>
       </c>
@@ -39077,8 +39406,12 @@
         <f>E83-previous!E83</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T83">
+        <f>F83-previous!F83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>77</v>
       </c>
@@ -39137,8 +39470,12 @@
         <f>E84-previous!E84</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T84">
+        <f>F84-previous!F84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>77</v>
       </c>
@@ -39197,8 +39534,12 @@
         <f>E85-previous!E85</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T85">
+        <f>F85-previous!F85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>77</v>
       </c>
@@ -39257,8 +39598,12 @@
         <f>E86-previous!E86</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T86">
+        <f>F86-previous!F86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>8</v>
       </c>
@@ -39317,8 +39662,12 @@
         <f>E87-previous!E87</f>
         <v>6.6010988098996748E-5</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T87">
+        <f>F87-previous!F87</f>
+        <v>-9.0034092485091755E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -39377,8 +39726,12 @@
         <f>E88-previous!E88</f>
         <v>-4.2457967510012296E-5</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T88">
+        <f>F88-previous!F88</f>
+        <v>-4.0003300402990938E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -39437,8 +39790,12 @@
         <f>E89-previous!E89</f>
         <v>3.0308570358095199E-4</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T89">
+        <f>F89-previous!F89</f>
+        <v>-1.4999640648705181E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>11</v>
       </c>
@@ -39497,8 +39854,12 @@
         <f>E90-previous!E90</f>
         <v>8.5810598346802713E-4</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T90">
+        <f>F90-previous!F90</f>
+        <v>-2.2001605489507803E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -39557,8 +39918,12 @@
         <f>E91-previous!E91</f>
         <v>-7.6890789358408096E-4</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T91">
+        <f>F91-previous!F91</f>
+        <v>-4.2903222762570303E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>11</v>
       </c>
@@ -39617,8 +39982,12 @@
         <f>E92-previous!E92</f>
         <v>-5.814351177596544E-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T92">
+        <f>F92-previous!F92</f>
+        <v>5.9375326651200933E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
@@ -39677,8 +40046,12 @@
         <f>E93-previous!E93</f>
         <v>8.2573786992630183E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T93">
+        <f>F93-previous!F93</f>
+        <v>1.6237344422098676E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -39737,8 +40110,12 @@
         <f>E94-previous!E94</f>
         <v>1.0375126928140466E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T94">
+        <f>F94-previous!F94</f>
+        <v>-4.4511039066996716E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -39797,8 +40174,12 @@
         <f>E95-previous!E95</f>
         <v>2.7164167180629972E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T95">
+        <f>F95-previous!F95</f>
+        <v>-7.0105139415599371E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>15</v>
       </c>
@@ -39857,8 +40238,12 @@
         <f>E96-previous!E96</f>
         <v>5.9860475520701062E-4</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T96">
+        <f>F96-previous!F96</f>
+        <v>-1.3694622354698538E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
@@ -39917,8 +40302,12 @@
         <f>E97-previous!E97</f>
         <v>-1.0155069522066462E-5</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T97">
+        <f>F97-previous!F97</f>
+        <v>-8.4356731617996061E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>15</v>
       </c>
@@ -39977,8 +40366,12 @@
         <f>E98-previous!E98</f>
         <v>5.8855902054000264E-4</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T98">
+        <f>F98-previous!F98</f>
+        <v>-4.9910458593105389E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>17</v>
       </c>
@@ -40037,8 +40430,12 @@
         <f>E99-previous!E99</f>
         <v>-8.6867209955987512E-5</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T99">
+        <f>F99-previous!F99</f>
+        <v>-1.3271461878394675E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>17</v>
       </c>
@@ -40097,8 +40494,12 @@
         <f>E100-previous!E100</f>
         <v>2.1847016245968298E-5</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T100">
+        <f>F100-previous!F100</f>
+        <v>2.89234001149552E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>17</v>
       </c>
@@ -40157,8 +40558,12 @@
         <f>E101-previous!E101</f>
         <v>-1.9209698909206097E-4</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T101">
+        <f>F101-previous!F101</f>
+        <v>-2.3922276600407688E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>19</v>
       </c>
@@ -40217,8 +40622,12 @@
         <f>E102-previous!E102</f>
         <v>-6.3419390742058823E-5</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T102">
+        <f>F102-previous!F102</f>
+        <v>-6.8972602942030115E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>19</v>
       </c>
@@ -40277,8 +40686,12 @@
         <f>E103-previous!E103</f>
         <v>2.4558020991993779E-5</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T103">
+        <f>F103-previous!F103</f>
+        <v>-1.9991262750984617E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>19</v>
       </c>
@@ -40337,8 +40750,12 @@
         <f>E104-previous!E104</f>
         <v>-3.3726042552606472E-4</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T104">
+        <f>F104-previous!F104</f>
+        <v>-3.6703456580700067E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>21</v>
       </c>
@@ -40397,8 +40814,12 @@
         <f>E105-previous!E105</f>
         <v>-2.5459559396853806E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T105">
+        <f>F105-previous!F105</f>
+        <v>-6.579563380732012E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>21</v>
       </c>
@@ -40457,8 +40878,12 @@
         <f>E106-previous!E106</f>
         <v>1.7043478242995125E-5</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T106">
+        <f>F106-previous!F106</f>
+        <v>1.1835274553606556E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>23</v>
       </c>
@@ -40517,8 +40942,12 @@
         <f>E107-previous!E107</f>
         <v>4.6639221049193935E-4</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T107">
+        <f>F107-previous!F107</f>
+        <v>1.0939960145049943E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>25</v>
       </c>
@@ -40577,8 +41006,12 @@
         <f>E108-previous!E108</f>
         <v>1.7792529432720805E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T108">
+        <f>F108-previous!F108</f>
+        <v>1.8330634534369228E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>25</v>
       </c>
@@ -40637,8 +41070,12 @@
         <f>E109-previous!E109</f>
         <v>3.2581414465704395E-4</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T109">
+        <f>F109-previous!F109</f>
+        <v>-6.094338753293016E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>27</v>
       </c>
@@ -40697,8 +41134,12 @@
         <f>E110-previous!E110</f>
         <v>4.2529281139250807E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T110">
+        <f>F110-previous!F110</f>
+        <v>5.8050096402730844E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>27</v>
       </c>
@@ -40757,8 +41198,12 @@
         <f>E111-previous!E111</f>
         <v>1.8259119537820112E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T111">
+        <f>F111-previous!F111</f>
+        <v>1.54327939490706E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>29</v>
       </c>
@@ -40817,8 +41262,12 @@
         <f>E112-previous!E112</f>
         <v>-2.8549531450779986E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T112">
+        <f>F112-previous!F112</f>
+        <v>1.1545773356320677E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>29</v>
       </c>
@@ -40877,8 +41326,12 @@
         <f>E113-previous!E113</f>
         <v>-4.3554508129106662E-4</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T113">
+        <f>F113-previous!F113</f>
+        <v>-1.8011275564300266E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>31</v>
       </c>
@@ -40937,8 +41390,12 @@
         <f>E114-previous!E114</f>
         <v>3.5387882208569588E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T114">
+        <f>F114-previous!F114</f>
+        <v>1.8633107033699803E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
@@ -40997,8 +41454,12 @@
         <f>E115-previous!E115</f>
         <v>-8.5231451351303056E-4</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T115">
+        <f>F115-previous!F115</f>
+        <v>-6.3422373359200979E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>35</v>
       </c>
@@ -41057,8 +41518,12 @@
         <f>E116-previous!E116</f>
         <v>4.040077228977923E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T116">
+        <f>F116-previous!F116</f>
+        <v>2.616638712965913E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>35</v>
       </c>
@@ -41117,8 +41582,12 @@
         <f>E117-previous!E117</f>
         <v>3.850987795880334E-4</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T117">
+        <f>F117-previous!F117</f>
+        <v>-1.7971097710067774E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>37</v>
       </c>
@@ -41177,8 +41646,12 @@
         <f>E118-previous!E118</f>
         <v>1.3351880599900001E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T118">
+        <f>F118-previous!F118</f>
+        <v>1.6625912494899753E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>37</v>
       </c>
@@ -41237,8 +41710,12 @@
         <f>E119-previous!E119</f>
         <v>-3.6370289184495252E-4</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T119">
+        <f>F119-previous!F119</f>
+        <v>-2.052755843536036E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>39</v>
       </c>
@@ -41297,8 +41774,12 @@
         <f>E120-previous!E120</f>
         <v>1.9720430229760444E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T120">
+        <f>F120-previous!F120</f>
+        <v>8.3619856076899701E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>39</v>
       </c>
@@ -41357,8 +41838,12 @@
         <f>E121-previous!E121</f>
         <v>1.8365195164260495E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T121">
+        <f>F121-previous!F121</f>
+        <v>9.1107870707984873E-5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>41</v>
       </c>
@@ -41417,8 +41902,12 @@
         <f>E122-previous!E122</f>
         <v>7.2478011888950089E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T122">
+        <f>F122-previous!F122</f>
+        <v>3.0149038971599706E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>41</v>
       </c>
@@ -41477,8 +41966,12 @@
         <f>E123-previous!E123</f>
         <v>-7.1527282834704664E-4</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T123">
+        <f>F123-previous!F123</f>
+        <v>-1.841145331096028E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>43</v>
       </c>
@@ -41537,8 +42030,12 @@
         <f>E124-previous!E124</f>
         <v>-1.750995783509901E-4</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T124">
+        <f>F124-previous!F124</f>
+        <v>-2.8337266442596265E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>43</v>
       </c>
@@ -41597,8 +42094,12 @@
         <f>E125-previous!E125</f>
         <v>-9.8933990000382721E-7</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T125">
+        <f>F125-previous!F125</f>
+        <v>-9.3567895603996476E-5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>45</v>
       </c>
@@ -41657,8 +42158,12 @@
         <f>E126-previous!E126</f>
         <v>-4.0713936722702737E-4</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T126">
+        <f>F126-previous!F126</f>
+        <v>-1.2356838490339417E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>45</v>
       </c>
@@ -41717,8 +42222,12 @@
         <f>E127-previous!E127</f>
         <v>4.0007807146968943E-5</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T127">
+        <f>F127-previous!F127</f>
+        <v>3.1811199684983471E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>45</v>
       </c>
@@ -41777,8 +42286,12 @@
         <f>E128-previous!E128</f>
         <v>-6.9500098513031183E-5</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T128">
+        <f>F128-previous!F128</f>
+        <v>-8.0301510487990058E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>47</v>
       </c>
@@ -41837,8 +42350,12 @@
         <f>E129-previous!E129</f>
         <v>-5.1797446322630003E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T129">
+        <f>F129-previous!F129</f>
+        <v>-9.8440954292479121E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>47</v>
       </c>
@@ -41897,8 +42414,12 @@
         <f>E130-previous!E130</f>
         <v>-5.9665562032386044E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T130">
+        <f>F130-previous!F130</f>
+        <v>-7.1315622255810895E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>49</v>
       </c>
@@ -41957,8 +42478,12 @@
         <f>E131-previous!E131</f>
         <v>-1.7766952709596939E-4</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T131">
+        <f>F131-previous!F131</f>
+        <v>-1.555691886889754E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>49</v>
       </c>
@@ -42017,8 +42542,12 @@
         <f>E132-previous!E132</f>
         <v>-3.4673237030435899E-6</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T132">
+        <f>F132-previous!F132</f>
+        <v>1.2434427342800092E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>51</v>
       </c>
@@ -42077,8 +42606,12 @@
         <f>E133-previous!E133</f>
         <v>-2.3501554405203073E-4</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T133">
+        <f>F133-previous!F133</f>
+        <v>1.0603435725640153E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>51</v>
       </c>
@@ -42137,8 +42670,12 @@
         <f>E134-previous!E134</f>
         <v>1.1692241128989922E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T134">
+        <f>F134-previous!F134</f>
+        <v>-1.4731875360729507E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>53</v>
       </c>
@@ -42197,8 +42734,12 @@
         <f>E135-previous!E135</f>
         <v>-2.9391912166598644E-4</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T135">
+        <f>F135-previous!F135</f>
+        <v>-2.0118564719801002E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>53</v>
       </c>
@@ -42257,8 +42798,12 @@
         <f>E136-previous!E136</f>
         <v>-3.630922258870406E-4</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T136">
+        <f>F136-previous!F136</f>
+        <v>1.612180378259831E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>55</v>
       </c>
@@ -42317,8 +42862,12 @@
         <f>E137-previous!E137</f>
         <v>5.5468533374003481E-4</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T137">
+        <f>F137-previous!F137</f>
+        <v>4.4757125305394663E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>55</v>
       </c>
@@ -42377,8 +42926,12 @@
         <f>E138-previous!E138</f>
         <v>5.4277321254958544E-5</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T138">
+        <f>F138-previous!F138</f>
+        <v>8.0127175230093606E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>57</v>
       </c>
@@ -42437,8 +42990,12 @@
         <f>E139-previous!E139</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T139">
+        <f>F139-previous!F139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>57</v>
       </c>
@@ -42497,8 +43054,12 @@
         <f>E140-previous!E140</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T140">
+        <f>F140-previous!F140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>57</v>
       </c>
@@ -42557,8 +43118,12 @@
         <f>E141-previous!E141</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T141">
+        <f>F141-previous!F141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>59</v>
       </c>
@@ -42617,8 +43182,12 @@
         <f>E142-previous!E142</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T142">
+        <f>F142-previous!F142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>59</v>
       </c>
@@ -42677,8 +43246,12 @@
         <f>E143-previous!E143</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T143">
+        <f>F143-previous!F143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>59</v>
       </c>
@@ -42737,8 +43310,12 @@
         <f>E144-previous!E144</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T144">
+        <f>F144-previous!F144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>61</v>
       </c>
@@ -42797,8 +43374,12 @@
         <f>E145-previous!E145</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T145">
+        <f>F145-previous!F145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>61</v>
       </c>
@@ -42857,8 +43438,12 @@
         <f>E146-previous!E146</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T146">
+        <f>F146-previous!F146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>61</v>
       </c>
@@ -42917,8 +43502,12 @@
         <f>E147-previous!E147</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T147">
+        <f>F147-previous!F147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>63</v>
       </c>
@@ -42977,8 +43566,12 @@
         <f>E148-previous!E148</f>
         <v>-1.54772443994311E-6</v>
       </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T148">
+        <f>F148-previous!F148</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>63</v>
       </c>
@@ -43037,8 +43630,12 @@
         <f>E149-previous!E149</f>
         <v>2.5573424045077786E-8</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T149">
+        <f>F149-previous!F149</f>
+        <v>-2.4725719850460237E-6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>63</v>
       </c>
@@ -43097,8 +43694,12 @@
         <f>E150-previous!E150</f>
         <v>-1.8542801605292425E-7</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T150">
+        <f>F150-previous!F150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>65</v>
       </c>
@@ -43157,8 +43758,12 @@
         <f>E151-previous!E151</f>
         <v>-1.9654173020189347E-6</v>
       </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T151">
+        <f>F151-previous!F151</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>65</v>
       </c>
@@ -43217,8 +43822,12 @@
         <f>E152-previous!E152</f>
         <v>-3.248564200142301E-7</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T152">
+        <f>F152-previous!F152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>65</v>
       </c>
@@ -43277,8 +43886,12 @@
         <f>E153-previous!E153</f>
         <v>-6.8476931090744042E-7</v>
       </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T153">
+        <f>F153-previous!F153</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>67</v>
       </c>
@@ -43337,8 +43950,12 @@
         <f>E154-previous!E154</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T154">
+        <f>F154-previous!F154</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>67</v>
       </c>
@@ -43397,8 +44014,12 @@
         <f>E155-previous!E155</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T155">
+        <f>F155-previous!F155</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>67</v>
       </c>
@@ -43457,8 +44078,12 @@
         <f>E156-previous!E156</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T156">
+        <f>F156-previous!F156</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>69</v>
       </c>
@@ -43517,8 +44142,12 @@
         <f>E157-previous!E157</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T157">
+        <f>F157-previous!F157</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>69</v>
       </c>
@@ -43577,8 +44206,12 @@
         <f>E158-previous!E158</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T158">
+        <f>F158-previous!F158</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>69</v>
       </c>
@@ -43637,8 +44270,12 @@
         <f>E159-previous!E159</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T159">
+        <f>F159-previous!F159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>71</v>
       </c>
@@ -43697,8 +44334,12 @@
         <f>E160-previous!E160</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T160">
+        <f>F160-previous!F160</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>71</v>
       </c>
@@ -43757,8 +44398,12 @@
         <f>E161-previous!E161</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T161">
+        <f>F161-previous!F161</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>71</v>
       </c>
@@ -43817,8 +44462,12 @@
         <f>E162-previous!E162</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T162">
+        <f>F162-previous!F162</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>73</v>
       </c>
@@ -43877,8 +44526,12 @@
         <f>E163-previous!E163</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T163">
+        <f>F163-previous!F163</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>73</v>
       </c>
@@ -43937,8 +44590,12 @@
         <f>E164-previous!E164</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T164">
+        <f>F164-previous!F164</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>73</v>
       </c>
@@ -43997,8 +44654,12 @@
         <f>E165-previous!E165</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T165">
+        <f>F165-previous!F165</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>75</v>
       </c>
@@ -44057,8 +44718,12 @@
         <f>E166-previous!E166</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T166">
+        <f>F166-previous!F166</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>75</v>
       </c>
@@ -44117,8 +44782,12 @@
         <f>E167-previous!E167</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T167">
+        <f>F167-previous!F167</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>75</v>
       </c>
@@ -44177,8 +44846,12 @@
         <f>E168-previous!E168</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T168">
+        <f>F168-previous!F168</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>77</v>
       </c>
@@ -44237,8 +44910,12 @@
         <f>E169-previous!E169</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T169">
+        <f>F169-previous!F169</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>77</v>
       </c>
@@ -44297,8 +44974,12 @@
         <f>E170-previous!E170</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T170">
+        <f>F170-previous!F170</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>77</v>
       </c>
@@ -44357,8 +45038,12 @@
         <f>E171-previous!E171</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T171">
+        <f>F171-previous!F171</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
@@ -44417,8 +45102,12 @@
         <f>E172-previous!E172</f>
         <v>8.4929795064025981E-5</v>
       </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T172">
+        <f>F172-previous!F172</f>
+        <v>-4.2966149903955753E-5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>8</v>
       </c>
@@ -44477,8 +45166,12 @@
         <f>E173-previous!E173</f>
         <v>-5.8371242370958143E-5</v>
       </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T173">
+        <f>F173-previous!F173</f>
+        <v>-7.8037127247965188E-5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>8</v>
       </c>
@@ -44537,8 +45230,12 @@
         <f>E174-previous!E174</f>
         <v>2.4188134188096733E-4</v>
       </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T174">
+        <f>F174-previous!F174</f>
+        <v>-1.1998045306294003E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>11</v>
       </c>
@@ -44597,8 +45294,12 @@
         <f>E175-previous!E175</f>
         <v>8.4788056966200731E-4</v>
       </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T175">
+        <f>F175-previous!F175</f>
+        <v>-5.8740300502790888E-4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
@@ -44657,8 +45358,12 @@
         <f>E176-previous!E176</f>
         <v>-9.5944687849702781E-4</v>
       </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T176">
+        <f>F176-previous!F176</f>
+        <v>-7.1511873240819313E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
@@ -44717,8 +45422,12 @@
         <f>E177-previous!E177</f>
         <v>4.5549696244800986E-4</v>
       </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T177">
+        <f>F177-previous!F177</f>
+        <v>1.4025749179219504E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>13</v>
       </c>
@@ -44777,8 +45486,12 @@
         <f>E178-previous!E178</f>
         <v>4.9980966057769916E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T178">
+        <f>F178-previous!F178</f>
+        <v>-2.4752038913100627E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>13</v>
       </c>
@@ -44837,8 +45550,12 @@
         <f>E179-previous!E179</f>
         <v>3.9776734363494715E-4</v>
       </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T179">
+        <f>F179-previous!F179</f>
+        <v>1.6773778760009739E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>13</v>
       </c>
@@ -44897,8 +45614,12 @@
         <f>E180-previous!E180</f>
         <v>1.4780212227999967E-3</v>
       </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T180">
+        <f>F180-previous!F180</f>
+        <v>-4.4150989940949792E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>15</v>
       </c>
@@ -44957,8 +45678,12 @@
         <f>E181-previous!E181</f>
         <v>-3.077445485902941E-3</v>
       </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T181">
+        <f>F181-previous!F181</f>
+        <v>-4.108771484001017E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>15</v>
       </c>
@@ -45017,8 +45742,12 @@
         <f>E182-previous!E182</f>
         <v>-3.1821121408150965E-3</v>
       </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T182">
+        <f>F182-previous!F182</f>
+        <v>-9.8873051866199546E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>15</v>
       </c>
@@ -45077,8 +45806,12 @@
         <f>E183-previous!E183</f>
         <v>-6.2482640962702174E-4</v>
       </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T183">
+        <f>F183-previous!F183</f>
+        <v>-8.9425737211001888E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>17</v>
       </c>
@@ -45137,8 +45870,12 @@
         <f>E184-previous!E184</f>
         <v>-1.0394668683100239E-4</v>
       </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T184">
+        <f>F184-previous!F184</f>
+        <v>-1.7484897023301027E-4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>17</v>
       </c>
@@ -45197,8 +45934,12 @@
         <f>E185-previous!E185</f>
         <v>1.8641379325057272E-5</v>
       </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T185">
+        <f>F185-previous!F185</f>
+        <v>2.3954645440027456E-5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>17</v>
       </c>
@@ -45257,8 +45998,12 @@
         <f>E186-previous!E186</f>
         <v>-1.7956312749101144E-4</v>
       </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T186">
+        <f>F186-previous!F186</f>
+        <v>-2.5890949817797271E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>19</v>
       </c>
@@ -45317,8 +46062,12 @@
         <f>E187-previous!E187</f>
         <v>-7.0871441647968325E-5</v>
       </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T187">
+        <f>F187-previous!F187</f>
+        <v>-6.0428262888101436E-5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>19</v>
       </c>
@@ -45377,8 +46126,12 @@
         <f>E188-previous!E188</f>
         <v>7.0705849519736574E-6</v>
       </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T188">
+        <f>F188-previous!F188</f>
+        <v>-1.90603362689723E-5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>19</v>
       </c>
@@ -45437,8 +46190,12 @@
         <f>E189-previous!E189</f>
         <v>-3.1306150101195751E-4</v>
       </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T189">
+        <f>F189-previous!F189</f>
+        <v>-2.9294798819001766E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>21</v>
       </c>
@@ -45497,8 +46254,12 @@
         <f>E190-previous!E190</f>
         <v>-2.7306267529079692E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T190">
+        <f>F190-previous!F190</f>
+        <v>-2.1550369040889972E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>21</v>
       </c>
@@ -45557,8 +46318,12 @@
         <f>E191-previous!E191</f>
         <v>-1.3162242875996988E-4</v>
       </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T191">
+        <f>F191-previous!F191</f>
+        <v>7.1909890160037904E-5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>23</v>
       </c>
@@ -45617,8 +46382,12 @@
         <f>E192-previous!E192</f>
         <v>-5.8026131816589777E-3</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T192">
+        <f>F192-previous!F192</f>
+        <v>-1.0640811594010424E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>25</v>
       </c>
@@ -45677,8 +46446,12 @@
         <f>E193-previous!E193</f>
         <v>2.5986857574000766E-3</v>
       </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T193">
+        <f>F193-previous!F193</f>
+        <v>2.6437952376019425E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>25</v>
       </c>
@@ -45737,8 +46510,12 @@
         <f>E194-previous!E194</f>
         <v>8.3053671333699342E-4</v>
       </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T194">
+        <f>F194-previous!F194</f>
+        <v>1.1978600706810116E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>27</v>
       </c>
@@ -45797,8 +46574,12 @@
         <f>E195-previous!E195</f>
         <v>3.2411836283080531E-3</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T195">
+        <f>F195-previous!F195</f>
+        <v>4.5344849767740003E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>27</v>
       </c>
@@ -45857,8 +46638,12 @@
         <f>E196-previous!E196</f>
         <v>2.0270771548239752E-3</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T196">
+        <f>F196-previous!F196</f>
+        <v>2.0413272369300683E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>29</v>
       </c>
@@ -45917,8 +46702,12 @@
         <f>E197-previous!E197</f>
         <v>-5.1198241528930266E-3</v>
       </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T197">
+        <f>F197-previous!F197</f>
+        <v>-5.32398936899936E-5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>29</v>
       </c>
@@ -45977,8 +46766,12 @@
         <f>E198-previous!E198</f>
         <v>3.2531053018702849E-4</v>
       </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T198">
+        <f>F198-previous!F198</f>
+        <v>1.4546361191970503E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>31</v>
       </c>
@@ -46037,8 +46830,12 @@
         <f>E199-previous!E199</f>
         <v>-1.986223825986011E-3</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T199">
+        <f>F199-previous!F199</f>
+        <v>7.7049339050994092E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>33</v>
       </c>
@@ -46097,8 +46894,12 @@
         <f>E200-previous!E200</f>
         <v>4.3881326813904886E-4</v>
       </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T200">
+        <f>F200-previous!F200</f>
+        <v>-3.4232394767297336E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>35</v>
       </c>
@@ -46157,8 +46958,12 @@
         <f>E201-previous!E201</f>
         <v>3.0553347220320104E-3</v>
       </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T201">
+        <f>F201-previous!F201</f>
+        <v>1.3912549264279983E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>35</v>
       </c>
@@ -46217,8 +47022,12 @@
         <f>E202-previous!E202</f>
         <v>2.5849776921804679E-4</v>
       </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T202">
+        <f>F202-previous!F202</f>
+        <v>-5.1633230869796432E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>37</v>
       </c>
@@ -46277,8 +47086,12 @@
         <f>E203-previous!E203</f>
         <v>2.615921152981926E-3</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T203">
+        <f>F203-previous!F203</f>
+        <v>3.3370063228790325E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>37</v>
       </c>
@@ -46337,8 +47150,12 @@
         <f>E204-previous!E204</f>
         <v>-1.8483709126398962E-4</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T204">
+        <f>F204-previous!F204</f>
+        <v>-2.0972518314309463E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>39</v>
       </c>
@@ -46397,8 +47214,12 @@
         <f>E205-previous!E205</f>
         <v>1.234829388204961E-3</v>
       </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T205">
+        <f>F205-previous!F205</f>
+        <v>-1.1715434127019808E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>39</v>
       </c>
@@ -46457,8 +47278,12 @@
         <f>E206-previous!E206</f>
         <v>1.6766501837289782E-3</v>
       </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T206">
+        <f>F206-previous!F206</f>
+        <v>-1.3490911413310824E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>41</v>
       </c>
@@ -46517,8 +47342,12 @@
         <f>E207-previous!E207</f>
         <v>6.5138586125530473E-3</v>
       </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T207">
+        <f>F207-previous!F207</f>
+        <v>2.8568560598419834E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>41</v>
       </c>
@@ -46577,8 +47406,12 @@
         <f>E208-previous!E208</f>
         <v>-6.8386217843996455E-4</v>
       </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T208">
+        <f>F208-previous!F208</f>
+        <v>-2.0625833674950966E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>43</v>
       </c>
@@ -46637,8 +47470,12 @@
         <f>E209-previous!E209</f>
         <v>-2.6991080187299676E-4</v>
       </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T209">
+        <f>F209-previous!F209</f>
+        <v>-3.0693760795202918E-4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>43</v>
       </c>
@@ -46697,8 +47534,12 @@
         <f>E210-previous!E210</f>
         <v>-4.8269108632981172E-5</v>
       </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T210">
+        <f>F210-previous!F210</f>
+        <v>-9.06926761720106E-5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>45</v>
       </c>
@@ -46757,8 +47598,12 @@
         <f>E211-previous!E211</f>
         <v>-3.6479693578406192E-4</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T211">
+        <f>F211-previous!F211</f>
+        <v>-1.0464492977909634E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>45</v>
       </c>
@@ -46817,8 +47662,12 @@
         <f>E212-previous!E212</f>
         <v>3.6882604326993196E-5</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T212">
+        <f>F212-previous!F212</f>
+        <v>4.9720374078909835E-5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>45</v>
       </c>
@@ -46877,8 +47726,12 @@
         <f>E213-previous!E213</f>
         <v>-2.9800094591969639E-5</v>
       </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T213">
+        <f>F213-previous!F213</f>
+        <v>-2.3889414766598005E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>47</v>
       </c>
@@ -46937,8 +47790,12 @@
         <f>E214-previous!E214</f>
         <v>-5.0065207099558029E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T214">
+        <f>F214-previous!F214</f>
+        <v>-1.754766128131896E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>47</v>
       </c>
@@ -46997,8 +47854,12 @@
         <f>E215-previous!E215</f>
         <v>-3.0779570720991023E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T215">
+        <f>F215-previous!F215</f>
+        <v>-2.5269786617559964E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>49</v>
       </c>
@@ -47057,8 +47918,12 @@
         <f>E216-previous!E216</f>
         <v>-1.1265974203289453E-4</v>
       </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T216">
+        <f>F216-previous!F216</f>
+        <v>-9.5050646554017959E-5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>49</v>
       </c>
@@ -47117,8 +47982,12 @@
         <f>E217-previous!E217</f>
         <v>4.8858162597031907E-5</v>
       </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T217">
+        <f>F217-previous!F217</f>
+        <v>1.2896805170992121E-4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>51</v>
       </c>
@@ -47177,8 +48046,12 @@
         <f>E218-previous!E218</f>
         <v>-4.3511457730005532E-4</v>
       </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T218">
+        <f>F218-previous!F218</f>
+        <v>1.1122350256079772E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>51</v>
       </c>
@@ -47237,8 +48110,12 @@
         <f>E219-previous!E219</f>
         <v>6.2010198724093968E-4</v>
       </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T219">
+        <f>F219-previous!F219</f>
+        <v>-1.407304591683034E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>53</v>
       </c>
@@ -47297,8 +48174,12 @@
         <f>E220-previous!E220</f>
         <v>-3.6126771196298701E-4</v>
       </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T220">
+        <f>F220-previous!F220</f>
+        <v>-3.3657203218101506E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>53</v>
       </c>
@@ -47357,8 +48238,12 @@
         <f>E221-previous!E221</f>
         <v>-4.2747828028200097E-4</v>
       </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T221">
+        <f>F221-previous!F221</f>
+        <v>9.3734402124012739E-5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>55</v>
       </c>
@@ -47417,8 +48302,12 @@
         <f>E222-previous!E222</f>
         <v>4.7728903026400538E-4</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T222">
+        <f>F222-previous!F222</f>
+        <v>3.7553252602906539E-4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>55</v>
       </c>
@@ -47477,8 +48366,12 @@
         <f>E223-previous!E223</f>
         <v>4.5060407498964672E-5</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T223">
+        <f>F223-previous!F223</f>
+        <v>7.6601219324068381E-5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>57</v>
       </c>
@@ -47537,8 +48430,12 @@
         <f>E224-previous!E224</f>
         <v>1.2572177007008634E-4</v>
       </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T224">
+        <f>F224-previous!F224</f>
+        <v>7.0182773966975809E-5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>57</v>
       </c>
@@ -47597,8 +48494,12 @@
         <f>E225-previous!E225</f>
         <v>-5.7059918516011443E-5</v>
       </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T225">
+        <f>F225-previous!F225</f>
+        <v>-2.9992580470983299E-5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>57</v>
       </c>
@@ -47657,8 +48558,12 @@
         <f>E226-previous!E226</f>
         <v>1.2573466171894587E-4</v>
       </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T226">
+        <f>F226-previous!F226</f>
+        <v>7.0182773966975809E-5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>59</v>
       </c>
@@ -47717,8 +48622,12 @@
         <f>E227-previous!E227</f>
         <v>2.2119589032976172E-5</v>
       </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T227">
+        <f>F227-previous!F227</f>
+        <v>6.2057436238993624E-5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>59</v>
       </c>
@@ -47777,8 +48686,12 @@
         <f>E228-previous!E228</f>
         <v>-1.9333492853990109E-5</v>
       </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T228">
+        <f>F228-previous!F228</f>
+        <v>-2.1492140184986575E-5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>59</v>
       </c>
@@ -47837,8 +48750,12 @@
         <f>E229-previous!E229</f>
         <v>-1.2039588192760409E-3</v>
       </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T229">
+        <f>F229-previous!F229</f>
+        <v>-1.6014610836629917E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>61</v>
       </c>
@@ -47897,8 +48814,12 @@
         <f>E230-previous!E230</f>
         <v>1.5121261912598438E-4</v>
       </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T230">
+        <f>F230-previous!F230</f>
+        <v>2.3261360860205027E-4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>61</v>
       </c>
@@ -47957,8 +48878,12 @@
         <f>E231-previous!E231</f>
         <v>2.1693193849403603E-4</v>
       </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T231">
+        <f>F231-previous!F231</f>
+        <v>2.6055805716995728E-4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>61</v>
       </c>
@@ -48017,8 +48942,12 @@
         <f>E232-previous!E232</f>
         <v>6.6331234801930705E-5</v>
       </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T232">
+        <f>F232-previous!F232</f>
+        <v>3.0348866651808137E-4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>63</v>
       </c>
@@ -48077,8 +49006,12 @@
         <f>E233-previous!E233</f>
         <v>2.147479101179961E-4</v>
       </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T233">
+        <f>F233-previous!F233</f>
+        <v>4.1111410390093361E-4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>63</v>
       </c>
@@ -48137,8 +49070,12 @@
         <f>E234-previous!E234</f>
         <v>1.2373053125402933E-4</v>
       </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T234">
+        <f>F234-previous!F234</f>
+        <v>2.8080276020991946E-4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>63</v>
       </c>
@@ -48197,8 +49134,12 @@
         <f>E235-previous!E235</f>
         <v>1.3585946830196871E-4</v>
       </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T235">
+        <f>F235-previous!F235</f>
+        <v>3.8165774641807371E-4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>65</v>
       </c>
@@ -48257,8 +49198,12 @@
         <f>E236-previous!E236</f>
         <v>6.2219609033603573E-4</v>
       </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T236">
+        <f>F236-previous!F236</f>
+        <v>7.2551359183498088E-4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>65</v>
       </c>
@@ -48317,8 +49262,12 @@
         <f>E237-previous!E237</f>
         <v>9.6493378520495776E-5</v>
       </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T237">
+        <f>F237-previous!F237</f>
+        <v>1.9233288667008797E-4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>65</v>
       </c>
@@ -48377,8 +49326,12 @@
         <f>E238-previous!E238</f>
         <v>1.2936860333959133E-4</v>
       </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T238">
+        <f>F238-previous!F238</f>
+        <v>-3.4906972516501877E-4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>67</v>
       </c>
@@ -48437,8 +49390,12 @@
         <f>E239-previous!E239</f>
         <v>6.4976388579607303E-6</v>
       </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T239">
+        <f>F239-previous!F239</f>
+        <v>5.1009105084043327E-5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>67</v>
       </c>
@@ -48497,8 +49454,12 @@
         <f>E240-previous!E240</f>
         <v>-6.5285896599931448E-6</v>
       </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T240">
+        <f>F240-previous!F240</f>
+        <v>-1.3539519509997433E-6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>67</v>
       </c>
@@ -48557,8 +49518,12 @@
         <f>E241-previous!E241</f>
         <v>-7.2305677513795352E-4</v>
       </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T241">
+        <f>F241-previous!F241</f>
+        <v>-9.7496065915292363E-4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>69</v>
       </c>
@@ -48617,8 +49582,12 @@
         <f>E242-previous!E242</f>
         <v>-8.7784245259958649E-5</v>
       </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T242">
+        <f>F242-previous!F242</f>
+        <v>8.3974950230620432E-4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>69</v>
       </c>
@@ -48677,8 +49646,12 @@
         <f>E243-previous!E243</f>
         <v>7.7350324420022432E-6</v>
       </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T243">
+        <f>F243-previous!F243</f>
+        <v>8.8168093505397449E-4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>69</v>
       </c>
@@ -48737,8 +49710,12 @@
         <f>E244-previous!E244</f>
         <v>-5.0065672021598617E-4</v>
       </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T244">
+        <f>F244-previous!F244</f>
+        <v>7.3124114187000933E-4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>71</v>
       </c>
@@ -48797,8 +49774,12 @@
         <f>E245-previous!E245</f>
         <v>1.3768034831895815E-4</v>
       </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T245">
+        <f>F245-previous!F245</f>
+        <v>7.3543361778405369E-4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>71</v>
       </c>
@@ -48857,8 +49838,12 @@
         <f>E246-previous!E246</f>
         <v>-2.1927652640307826E-6</v>
       </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T246">
+        <f>F246-previous!F246</f>
+        <v>3.5447260949839077E-6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>71</v>
       </c>
@@ -48917,8 +49902,12 @@
         <f>E247-previous!E247</f>
         <v>-5.9833718952106985E-4</v>
       </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T247">
+        <f>F247-previous!F247</f>
+        <v>-7.1182629311206114E-4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>73</v>
       </c>
@@ -48977,8 +49966,12 @@
         <f>E248-previous!E248</f>
         <v>7.4721883094985841E-5</v>
       </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T248">
+        <f>F248-previous!F248</f>
+        <v>1.6924576935195557E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>73</v>
       </c>
@@ -49037,8 +50030,12 @@
         <f>E249-previous!E249</f>
         <v>-2.250321511698683E-5</v>
       </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T249">
+        <f>F249-previous!F249</f>
+        <v>7.0957463674026222E-5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>73</v>
       </c>
@@ -49097,8 +50094,12 @@
         <f>E250-previous!E250</f>
         <v>4.0911845738900166E-4</v>
       </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T250">
+        <f>F250-previous!F250</f>
+        <v>2.6577365324609303E-4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>75</v>
       </c>
@@ -49157,8 +50158,12 @@
         <f>E251-previous!E251</f>
         <v>9.9287091059885313E-7</v>
       </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T251">
+        <f>F251-previous!F251</f>
+        <v>-2.2016817308700976E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>75</v>
       </c>
@@ -49217,8 +50222,12 @@
         <f>E252-previous!E252</f>
         <v>-1.3050997100916284E-5</v>
       </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T252">
+        <f>F252-previous!F252</f>
+        <v>8.6585418818896365E-5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>75</v>
       </c>
@@ -49277,8 +50286,12 @@
         <f>E253-previous!E253</f>
         <v>5.3093138398707662E-4</v>
       </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T253">
+        <f>F253-previous!F253</f>
+        <v>2.6016076424295598E-4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>77</v>
       </c>
@@ -49337,8 +50350,12 @@
         <f>E254-previous!E254</f>
         <v>-9.0280713699320003E-7</v>
       </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T254">
+        <f>F254-previous!F254</f>
+        <v>-5.1477789012899233E-4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>77</v>
       </c>
@@ -49397,8 +50414,12 @@
         <f>E255-previous!E255</f>
         <v>2.1354322610050991E-6</v>
       </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T255">
+        <f>F255-previous!F255</f>
+        <v>2.1167376593100862E-4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>77</v>
       </c>
@@ -49457,8 +50478,12 @@
         <f>E256-previous!E256</f>
         <v>3.4818867923400165E-4</v>
       </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T256">
+        <f>F256-previous!F256</f>
+        <v>1.0074741691710187E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>8</v>
       </c>
@@ -49517,8 +50542,12 @@
         <f>E257-previous!E257</f>
         <v>9.2243253189905339E-5</v>
       </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T257">
+        <f>F257-previous!F257</f>
+        <v>-1.5621640289009697E-5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>8</v>
       </c>
@@ -49577,8 +50606,12 @@
         <f>E258-previous!E258</f>
         <v>2.1567121980980986E-5</v>
       </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T258">
+        <f>F258-previous!F258</f>
+        <v>2.1458021685105688E-4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
@@ -49637,8 +50670,12 @@
         <f>E259-previous!E259</f>
         <v>2.4883766927996653E-4</v>
       </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T259">
+        <f>F259-previous!F259</f>
+        <v>-8.7213853896983551E-5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>11</v>
       </c>
@@ -49697,8 +50734,12 @@
         <f>E260-previous!E260</f>
         <v>8.1206374774600576E-4</v>
       </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T260">
+        <f>F260-previous!F260</f>
+        <v>-5.6729809635702733E-4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>11</v>
       </c>
@@ -49757,8 +50798,12 @@
         <f>E261-previous!E261</f>
         <v>-8.2415291178106198E-4</v>
       </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T261">
+        <f>F261-previous!F261</f>
+        <v>-6.9532676998170784E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>11</v>
       </c>
@@ -49817,8 +50862,12 @@
         <f>E262-previous!E262</f>
         <v>5.3327205376002551E-4</v>
       </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T262">
+        <f>F262-previous!F262</f>
+        <v>1.7114239357700622E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>13</v>
       </c>
@@ -49877,8 +50926,12 @@
         <f>E263-previous!E263</f>
         <v>5.0039545594019463E-3</v>
       </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T263">
+        <f>F263-previous!F263</f>
+        <v>-3.4684402104301348E-4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>13</v>
       </c>
@@ -49937,8 +50990,12 @@
         <f>E264-previous!E264</f>
         <v>4.0808689675098098E-4</v>
       </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T264">
+        <f>F264-previous!F264</f>
+        <v>1.849778295627047E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>13</v>
       </c>
@@ -49997,8 +51054,12 @@
         <f>E265-previous!E265</f>
         <v>1.4887437965930284E-3</v>
       </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T265">
+        <f>F265-previous!F265</f>
+        <v>-4.7027702779909308E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>15</v>
       </c>
@@ -50057,8 +51118,12 @@
         <f>E266-previous!E266</f>
         <v>-3.0780320734379307E-3</v>
       </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T266">
+        <f>F266-previous!F266</f>
+        <v>-4.088658954095048E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>15</v>
       </c>
@@ -50117,8 +51182,12 @@
         <f>E267-previous!E267</f>
         <v>-2.9441513208949832E-3</v>
       </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T267">
+        <f>F267-previous!F267</f>
+        <v>-6.5061403977706433E-4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>15</v>
       </c>
@@ -50177,8 +51246,12 @@
         <f>E268-previous!E268</f>
         <v>-6.0274825510198138E-4</v>
       </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T268">
+        <f>F268-previous!F268</f>
+        <v>-9.9273153863899122E-4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>17</v>
       </c>
@@ -50237,8 +51310,12 @@
         <f>E269-previous!E269</f>
         <v>-9.8526219066918941E-5</v>
       </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T269">
+        <f>F269-previous!F269</f>
+        <v>-1.6420844989595285E-4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>17</v>
       </c>
@@ -50297,8 +51374,12 @@
         <f>E270-previous!E270</f>
         <v>3.1440004131022548E-5</v>
       </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T270">
+        <f>F270-previous!F270</f>
+        <v>3.7668023542991591E-5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>17</v>
       </c>
@@ -50357,8 +51438,12 @@
         <f>E271-previous!E271</f>
         <v>-1.7451275709789993E-4</v>
       </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T271">
+        <f>F271-previous!F271</f>
+        <v>-2.4276294770197993E-4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>19</v>
       </c>
@@ -50417,8 +51502,12 @@
         <f>E272-previous!E272</f>
         <v>-4.4912202298963422E-5</v>
       </c>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T272">
+        <f>F272-previous!F272</f>
+        <v>-1.8837047798037077E-5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>19</v>
       </c>
@@ -50477,8 +51566,12 @@
         <f>E273-previous!E273</f>
         <v>2.2654169561930892E-5</v>
       </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T273">
+        <f>F273-previous!F273</f>
+        <v>9.6405807989974335E-6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>19</v>
       </c>
@@ -50537,8 +51630,12 @@
         <f>E274-previous!E274</f>
         <v>-1.7031656161903275E-4</v>
       </c>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T274">
+        <f>F274-previous!F274</f>
+        <v>-4.2996142124995806E-5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>21</v>
       </c>
@@ -50597,8 +51694,12 @@
         <f>E275-previous!E275</f>
         <v>-2.7190233736552591E-2</v>
       </c>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T275">
+        <f>F275-previous!F275</f>
+        <v>2.5927202275360106E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>21</v>
       </c>
@@ -50657,8 +51758,12 @@
         <f>E276-previous!E276</f>
         <v>3.6447691714602826E-4</v>
       </c>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T276">
+        <f>F276-previous!F276</f>
+        <v>1.2543050115270127E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>23</v>
       </c>
@@ -50717,8 +51822,12 @@
         <f>E277-previous!E277</f>
         <v>-5.1981448467400826E-3</v>
       </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T277">
+        <f>F277-previous!F277</f>
+        <v>-2.5223004302199481E-4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>25</v>
       </c>
@@ -50777,8 +51886,12 @@
         <f>E278-previous!E278</f>
         <v>2.7152310849549721E-3</v>
       </c>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T278">
+        <f>F278-previous!F278</f>
+        <v>2.8556782516500068E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>25</v>
       </c>
@@ -50837,8 +51950,12 @@
         <f>E279-previous!E279</f>
         <v>9.0484192804207719E-4</v>
       </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T279">
+        <f>F279-previous!F279</f>
+        <v>1.5522765913039693E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>27</v>
       </c>
@@ -50897,8 +52014,12 @@
         <f>E280-previous!E280</f>
         <v>2.7996270526809974E-3</v>
       </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T280">
+        <f>F280-previous!F280</f>
+        <v>4.5392508474210169E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>27</v>
       </c>
@@ -50957,8 +52078,12 @@
         <f>E281-previous!E281</f>
         <v>2.0998338637159275E-3</v>
       </c>
-    </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T281">
+        <f>F281-previous!F281</f>
+        <v>2.395057303364978E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>29</v>
       </c>
@@ -51017,8 +52142,12 @@
         <f>E282-previous!E282</f>
         <v>-5.1794296957139441E-3</v>
       </c>
-    </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T282">
+        <f>F282-previous!F282</f>
+        <v>5.2853094160998371E-4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>29</v>
       </c>
@@ -51077,8 +52206,12 @@
         <f>E283-previous!E283</f>
         <v>7.1217878915208477E-4</v>
       </c>
-    </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T283">
+        <f>F283-previous!F283</f>
+        <v>2.8252857792270269E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>31</v>
       </c>
@@ -51137,8 +52270,12 @@
         <f>E284-previous!E284</f>
         <v>-2.343584957440914E-3</v>
       </c>
-    </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T284">
+        <f>F284-previous!F284</f>
+        <v>-8.9534743456398669E-4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>33</v>
       </c>
@@ -51197,8 +52334,12 @@
         <f>E285-previous!E285</f>
         <v>4.7778514079299672E-4</v>
       </c>
-    </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T285">
+        <f>F285-previous!F285</f>
+        <v>-6.3028804616005463E-4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>35</v>
       </c>
@@ -51257,8 +52398,12 @@
         <f>E286-previous!E286</f>
         <v>2.9295515191590793E-3</v>
       </c>
-    </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T286">
+        <f>F286-previous!F286</f>
+        <v>1.0130539808500538E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>35</v>
       </c>
@@ -51317,8 +52462,12 @@
         <f>E287-previous!E287</f>
         <v>5.617707937040084E-4</v>
       </c>
-    </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T287">
+        <f>F287-previous!F287</f>
+        <v>2.4193620967105645E-4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>37</v>
       </c>
@@ -51377,8 +52526,12 @@
         <f>E288-previous!E288</f>
         <v>2.734352757502001E-3</v>
       </c>
-    </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T288">
+        <f>F288-previous!F288</f>
+        <v>3.585892110806066E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>37</v>
       </c>
@@ -51437,8 +52590,12 @@
         <f>E289-previous!E289</f>
         <v>-5.9465141712011782E-5</v>
       </c>
-    </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T289">
+        <f>F289-previous!F289</f>
+        <v>-1.3294145480120534E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>39</v>
       </c>
@@ -51497,8 +52654,12 @@
         <f>E290-previous!E290</f>
         <v>1.3530538522570357E-3</v>
       </c>
-    </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T290">
+        <f>F290-previous!F290</f>
+        <v>-1.2981298147159981E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>39</v>
       </c>
@@ -51557,8 +52718,12 @@
         <f>E291-previous!E291</f>
         <v>1.761716108368061E-3</v>
       </c>
-    </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T291">
+        <f>F291-previous!F291</f>
+        <v>-5.2614994331401377E-4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>41</v>
       </c>
@@ -51617,8 +52782,12 @@
         <f>E292-previous!E292</f>
         <v>5.8667018435890617E-3</v>
       </c>
-    </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T292">
+        <f>F292-previous!F292</f>
+        <v>2.5901084766130067E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>41</v>
       </c>
@@ -51677,8 +52846,12 @@
         <f>E293-previous!E293</f>
         <v>-4.514920329869998E-4</v>
       </c>
-    </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T293">
+        <f>F293-previous!F293</f>
+        <v>-1.3266532381159823E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>43</v>
       </c>
@@ -51737,8 +52910,12 @@
         <f>E294-previous!E294</f>
         <v>-1.5787191840299641E-4</v>
       </c>
-    </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T294">
+        <f>F294-previous!F294</f>
+        <v>2.8143830960603022E-4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>43</v>
       </c>
@@ -51797,8 +52974,12 @@
         <f>E295-previous!E295</f>
         <v>-2.2629478995006558E-5</v>
       </c>
-    </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T295">
+        <f>F295-previous!F295</f>
+        <v>-6.7139470146915237E-5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>45</v>
       </c>
@@ -51857,8 +53038,12 @@
         <f>E296-previous!E296</f>
         <v>-3.4941368738905521E-4</v>
       </c>
-    </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T296">
+        <f>F296-previous!F296</f>
+        <v>-1.0253610649919587E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>45</v>
       </c>
@@ -51917,8 +53102,12 @@
         <f>E297-previous!E297</f>
         <v>4.3810176484915253E-5</v>
       </c>
-    </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T297">
+        <f>F297-previous!F297</f>
+        <v>5.8171035981935404E-5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>45</v>
       </c>
@@ -51977,8 +53166,12 @@
         <f>E298-previous!E298</f>
         <v>7.0001785798601279E-4</v>
       </c>
-    </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T298">
+        <f>F298-previous!F298</f>
+        <v>5.7848356153000768E-4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>47</v>
       </c>
@@ -52037,8 +53230,12 @@
         <f>E299-previous!E299</f>
         <v>-5.0306266971862024E-2</v>
       </c>
-    </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T299">
+        <f>F299-previous!F299</f>
+        <v>-1.8354223562436045E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>47</v>
       </c>
@@ -52097,8 +53294,12 @@
         <f>E300-previous!E300</f>
         <v>-3.0342458590254084E-2</v>
       </c>
-    </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T300">
+        <f>F300-previous!F300</f>
+        <v>-1.5480478884110083E-3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>49</v>
       </c>
@@ -52157,8 +53358,12 @@
         <f>E301-previous!E301</f>
         <v>-2.3275770193909029E-4</v>
       </c>
-    </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T301">
+        <f>F301-previous!F301</f>
+        <v>-3.819828466550268E-4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>49</v>
       </c>
@@ -52217,8 +53422,12 @@
         <f>E302-previous!E302</f>
         <v>2.1521704117799523E-4</v>
       </c>
-    </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T302">
+        <f>F302-previous!F302</f>
+        <v>3.3319952433696898E-4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>51</v>
       </c>
@@ -52277,8 +53486,12 @@
         <f>E303-previous!E303</f>
         <v>-3.8799767391795026E-4</v>
       </c>
-    </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T303">
+        <f>F303-previous!F303</f>
+        <v>4.3496436393708482E-4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>51</v>
       </c>
@@ -52337,8 +53550,12 @@
         <f>E304-previous!E304</f>
         <v>7.5506921654100445E-4</v>
       </c>
-    </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T304">
+        <f>F304-previous!F304</f>
+        <v>-7.4270182217095471E-4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>53</v>
       </c>
@@ -52397,8 +53614,12 @@
         <f>E305-previous!E305</f>
         <v>-1.546047181890664E-4</v>
       </c>
-    </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T305">
+        <f>F305-previous!F305</f>
+        <v>2.8924967928301015E-4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>53</v>
       </c>
@@ -52457,8 +53678,12 @@
         <f>E306-previous!E306</f>
         <v>6.5363089382985962E-5</v>
       </c>
-    </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T306">
+        <f>F306-previous!F306</f>
+        <v>1.6107251007629886E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>55</v>
       </c>
@@ -52517,8 +53742,12 @@
         <f>E307-previous!E307</f>
         <v>4.3012200920700128E-4</v>
       </c>
-    </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T307">
+        <f>F307-previous!F307</f>
+        <v>3.4648550848703774E-4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>55</v>
       </c>
@@ -52577,8 +53806,12 @@
         <f>E308-previous!E308</f>
         <v>6.0081434090974994E-5</v>
       </c>
-    </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T308">
+        <f>F308-previous!F308</f>
+        <v>9.1468642145930978E-5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>57</v>
       </c>
@@ -52637,8 +53870,12 @@
         <f>E309-previous!E309</f>
         <v>1.2863300841592373E-4</v>
       </c>
-    </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T309">
+        <f>F309-previous!F309</f>
+        <v>7.0609361336959608E-5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>57</v>
       </c>
@@ -52697,8 +53934,12 @@
         <f>E310-previous!E310</f>
         <v>-5.9576384478954303E-5</v>
       </c>
-    </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T310">
+        <f>F310-previous!F310</f>
+        <v>-2.9789497822063637E-5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>57</v>
       </c>
@@ -52757,8 +53998,12 @@
         <f>E311-previous!E311</f>
         <v>1.286462052400017E-4</v>
       </c>
-    </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T311">
+        <f>F311-previous!F311</f>
+        <v>7.0609361336959608E-5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>59</v>
       </c>
@@ -52817,8 +54062,12 @@
         <f>E312-previous!E312</f>
         <v>2.2064345421957121E-5</v>
       </c>
-    </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T312">
+        <f>F312-previous!F312</f>
+        <v>6.2431807752005852E-5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>59</v>
       </c>
@@ -52877,8 +54126,12 @@
         <f>E313-previous!E313</f>
         <v>-1.9899357039054877E-5</v>
       </c>
-    </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T313">
+        <f>F313-previous!F313</f>
+        <v>-2.0752294068948629E-5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>59</v>
       </c>
@@ -52937,8 +54190,12 @@
         <f>E314-previous!E314</f>
         <v>-1.2279670485340066E-3</v>
       </c>
-    </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T314">
+        <f>F314-previous!F314</f>
+        <v>-1.6097961770289437E-3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>61</v>
       </c>
@@ -52997,8 +54254,12 @@
         <f>E315-previous!E315</f>
         <v>1.5203499478300131E-4</v>
       </c>
-    </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T315">
+        <f>F315-previous!F315</f>
+        <v>2.3210083573199647E-4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>61</v>
       </c>
@@ -53057,8 +54318,12 @@
         <f>E316-previous!E316</f>
         <v>2.2796543365899424E-4</v>
       </c>
-    </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T316">
+        <f>F316-previous!F316</f>
+        <v>2.720501061930225E-4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>61</v>
       </c>
@@ -53117,8 +54382,12 @@
         <f>E317-previous!E317</f>
         <v>6.2680701038986264E-5</v>
       </c>
-    </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T317">
+        <f>F317-previous!F317</f>
+        <v>2.9780384179700636E-4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>63</v>
       </c>
@@ -53177,8 +54446,12 @@
         <f>E318-previous!E318</f>
         <v>2.2438032723093304E-4</v>
       </c>
-    </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T318">
+        <f>F318-previous!F318</f>
+        <v>4.1199502344790861E-4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>63</v>
       </c>
@@ -53237,8 +54510,12 @@
         <f>E319-previous!E319</f>
         <v>1.297550387899804E-4</v>
       </c>
-    </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T319">
+        <f>F319-previous!F319</f>
+        <v>2.9282480687398138E-4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>63</v>
       </c>
@@ -53297,8 +54574,12 @@
         <f>E320-previous!E320</f>
         <v>1.3528736484402781E-4</v>
       </c>
-    </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T320">
+        <f>F320-previous!F320</f>
+        <v>3.7643191726399738E-4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>65</v>
       </c>
@@ -53357,8 +54638,12 @@
         <f>E321-previous!E321</f>
         <v>6.4771071895597387E-4</v>
       </c>
-    </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T321">
+        <f>F321-previous!F321</f>
+        <v>7.3105241762799755E-4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>65</v>
       </c>
@@ -53417,8 +54702,12 @@
         <f>E322-previous!E322</f>
         <v>1.0237462914290674E-4</v>
       </c>
-    </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T322">
+        <f>F322-previous!F322</f>
+        <v>2.0858832973702501E-4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>65</v>
       </c>
@@ -53477,8 +54766,12 @@
         <f>E323-previous!E323</f>
         <v>1.3052644045509487E-4</v>
       </c>
-    </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T323">
+        <f>F323-previous!F323</f>
+        <v>-3.4797132110403473E-4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>67</v>
       </c>
@@ -53537,8 +54830,12 @@
         <f>E324-previous!E324</f>
         <v>7.1065748489251845E-6</v>
       </c>
-    </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T324">
+        <f>F324-previous!F324</f>
+        <v>5.1699592948928341E-5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>67</v>
       </c>
@@ -53597,8 +54894,12 @@
         <f>E325-previous!E325</f>
         <v>-6.7800689860231245E-6</v>
       </c>
-    </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T325">
+        <f>F325-previous!F325</f>
+        <v>-7.0769987803309675E-7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>67</v>
       </c>
@@ -53657,8 +54958,12 @@
         <f>E326-previous!E326</f>
         <v>-7.4363663198895313E-4</v>
       </c>
-    </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T326">
+        <f>F326-previous!F326</f>
+        <v>-9.7753194359695428E-4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>69</v>
       </c>
@@ -53717,8 +55022,12 @@
         <f>E327-previous!E327</f>
         <v>-8.8270989249961129E-5</v>
       </c>
-    </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T327">
+        <f>F327-previous!F327</f>
+        <v>8.4074842633419938E-4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>69</v>
       </c>
@@ -53777,8 +55086,12 @@
         <f>E328-previous!E328</f>
         <v>2.5855893769910487E-6</v>
       </c>
-    </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T328">
+        <f>F328-previous!F328</f>
+        <v>9.1853701510902219E-4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>69</v>
       </c>
@@ -53837,8 +55150,12 @@
         <f>E329-previous!E329</f>
         <v>-5.0037635649896606E-4</v>
       </c>
-    </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T329">
+        <f>F329-previous!F329</f>
+        <v>7.3561889265699731E-4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>71</v>
       </c>
@@ -53897,8 +55214,12 @@
         <f>E330-previous!E330</f>
         <v>1.3880176417502277E-4</v>
       </c>
-    </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T330">
+        <f>F330-previous!F330</f>
+        <v>7.4540482538598685E-4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>71</v>
       </c>
@@ -53957,8 +55278,12 @@
         <f>E331-previous!E331</f>
         <v>-2.3423475989936549E-6</v>
       </c>
-    </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T331">
+        <f>F331-previous!F331</f>
+        <v>4.2997610579798007E-6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>71</v>
       </c>
@@ -54017,8 +55342,12 @@
         <f>E332-previous!E332</f>
         <v>-6.1718657916198794E-4</v>
       </c>
-    </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T332">
+        <f>F332-previous!F332</f>
+        <v>-7.1232573377100206E-4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>73</v>
       </c>
@@ -54077,8 +55406,12 @@
         <f>E333-previous!E333</f>
         <v>7.4422266226004119E-5</v>
       </c>
-    </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T333">
+        <f>F333-previous!F333</f>
+        <v>1.6964219867798835E-4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>73</v>
       </c>
@@ -54137,8 +55470,12 @@
         <f>E334-previous!E334</f>
         <v>-2.3887406495948227E-5</v>
       </c>
-    </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T334">
+        <f>F334-previous!F334</f>
+        <v>7.6076209207909251E-5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>73</v>
       </c>
@@ -54197,8 +55534,12 @@
         <f>E335-previous!E335</f>
         <v>4.0964919852204407E-4</v>
       </c>
-    </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T335">
+        <f>F335-previous!F335</f>
+        <v>2.6720936878799062E-4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>75</v>
       </c>
@@ -54257,8 +55598,12 @@
         <f>E336-previous!E336</f>
         <v>7.6017401319516953E-7</v>
       </c>
-    </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T336">
+        <f>F336-previous!F336</f>
+        <v>-2.1878237398198497E-4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>75</v>
       </c>
@@ -54317,8 +55662,12 @@
         <f>E337-previous!E337</f>
         <v>-1.4197823853034919E-5</v>
       </c>
-    </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T337">
+        <f>F337-previous!F337</f>
+        <v>9.2008507878937884E-5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>75</v>
       </c>
@@ -54377,8 +55726,12 @@
         <f>E338-previous!E338</f>
         <v>5.3172678608104373E-4</v>
       </c>
-    </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T338">
+        <f>F338-previous!F338</f>
+        <v>2.6168200888199156E-4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>77</v>
       </c>
@@ -54437,8 +55790,12 @@
         <f>E339-previous!E339</f>
         <v>-1.1187043809923747E-6</v>
       </c>
-    </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T339">
+        <f>F339-previous!F339</f>
+        <v>-5.1174789758900996E-4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>77</v>
       </c>
@@ -54497,8 +55854,12 @@
         <f>E340-previous!E340</f>
         <v>6.7231101991138686E-7</v>
       </c>
-    </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T340">
+        <f>F340-previous!F340</f>
+        <v>2.2326143319606473E-4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>77</v>
       </c>
@@ -54557,8 +55918,12 @@
         <f>E341-previous!E341</f>
         <v>3.4830089948398313E-4</v>
       </c>
-    </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T341">
+        <f>F341-previous!F341</f>
+        <v>1.014866375009027E-3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>8</v>
       </c>
@@ -54617,8 +55982,12 @@
         <f>E342-previous!E342</f>
         <v>1.7591905532077234E-5</v>
       </c>
-    </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T342">
+        <f>F342-previous!F342</f>
+        <v>-4.9097328263969509E-5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>8</v>
       </c>
@@ -54677,8 +56046,12 @@
         <f>E343-previous!E343</f>
         <v>-8.5736199483044118E-5</v>
       </c>
-    </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T343">
+        <f>F343-previous!F343</f>
+        <v>-1.3129933158595453E-4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>8</v>
       </c>
@@ -54737,8 +56110,12 @@
         <f>E344-previous!E344</f>
         <v>1.600897530289469E-4</v>
       </c>
-    </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T344">
+        <f>F344-previous!F344</f>
+        <v>-1.1873683566698823E-4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>11</v>
       </c>
@@ -54797,8 +56174,12 @@
         <f>E345-previous!E345</f>
         <v>6.936170920829321E-4</v>
       </c>
-    </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T345">
+        <f>F345-previous!F345</f>
+        <v>-8.536847252689217E-4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>11</v>
       </c>
@@ -54857,8 +56238,12 @@
         <f>E346-previous!E346</f>
         <v>-9.5933102125700387E-4</v>
       </c>
-    </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T346">
+        <f>F346-previous!F346</f>
+        <v>-7.5357688057909877E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>11</v>
       </c>
@@ -54917,8 +56302,12 @@
         <f>E347-previous!E347</f>
         <v>4.3821879678401787E-4</v>
       </c>
-    </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T347">
+        <f>F347-previous!F347</f>
+        <v>1.5514455792369208E-3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>13</v>
       </c>
@@ -54977,8 +56366,12 @@
         <f>E348-previous!E348</f>
         <v>5.1395588543429183E-3</v>
       </c>
-    </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T348">
+        <f>F348-previous!F348</f>
+        <v>-8.9497747857048005E-5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>13</v>
       </c>
@@ -55037,8 +56430,12 @@
         <f>E349-previous!E349</f>
         <v>3.9799243089999603E-4</v>
       </c>
-    </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T349">
+        <f>F349-previous!F349</f>
+        <v>1.5054133187960561E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>13</v>
       </c>
@@ -55097,8 +56494,12 @@
         <f>E350-previous!E350</f>
         <v>1.5331635587319536E-3</v>
       </c>
-    </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T350">
+        <f>F350-previous!F350</f>
+        <v>-4.7157916337100536E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>15</v>
       </c>
@@ -55157,8 +56558,12 @@
         <f>E351-previous!E351</f>
         <v>-3.1757245960269964E-3</v>
       </c>
-    </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T351">
+        <f>F351-previous!F351</f>
+        <v>-4.2807153957179489E-3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>15</v>
       </c>
@@ -55217,8 +56622,12 @@
         <f>E352-previous!E352</f>
         <v>-3.3655188043369977E-3</v>
       </c>
-    </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T352">
+        <f>F352-previous!F352</f>
+        <v>-8.8374745244301778E-4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>15</v>
       </c>
@@ -55277,8 +56686,12 @@
         <f>E353-previous!E353</f>
         <v>-6.5207789091398238E-4</v>
       </c>
-    </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T353">
+        <f>F353-previous!F353</f>
+        <v>-8.9151863958303323E-4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>17</v>
       </c>
@@ -55337,8 +56750,12 @@
         <f>E354-previous!E354</f>
         <v>-7.9885792388045829E-5</v>
       </c>
-    </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T354">
+        <f>F354-previous!F354</f>
+        <v>-1.6949251670594911E-4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>17</v>
       </c>
@@ -55397,8 +56814,12 @@
         <f>E355-previous!E355</f>
         <v>2.3350768835972424E-5</v>
       </c>
-    </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T355">
+        <f>F355-previous!F355</f>
+        <v>2.8261733440060333E-5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>17</v>
       </c>
@@ -55457,8 +56878,12 @@
         <f>E356-previous!E356</f>
         <v>-1.3295598874207837E-4</v>
       </c>
-    </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T356">
+        <f>F356-previous!F356</f>
+        <v>-1.8621648512495703E-4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>19</v>
       </c>
@@ -55517,8 +56942,12 @@
         <f>E357-previous!E357</f>
         <v>-1.0279321903006178E-5</v>
       </c>
-    </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T357">
+        <f>F357-previous!F357</f>
+        <v>-2.3712138771059266E-5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>19</v>
       </c>
@@ -55577,8 +57006,12 @@
         <f>E358-previous!E358</f>
         <v>1.0076868295016972E-5</v>
       </c>
-    </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T358">
+        <f>F358-previous!F358</f>
+        <v>-2.7868506750960975E-5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>19</v>
       </c>
@@ -55637,8 +57070,12 @@
         <f>E359-previous!E359</f>
         <v>-3.8476811206500372E-4</v>
       </c>
-    </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T359">
+        <f>F359-previous!F359</f>
+        <v>-4.5284520688493313E-4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>21</v>
       </c>
@@ -55697,8 +57134,12 @@
         <f>E360-previous!E360</f>
         <v>-2.7141341718588896E-2</v>
       </c>
-    </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T360">
+        <f>F360-previous!F360</f>
+        <v>7.8261845630198112E-4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>21</v>
       </c>
@@ -55757,8 +57198,12 @@
         <f>E361-previous!E361</f>
         <v>-1.355758207600144E-4</v>
       </c>
-    </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T361">
+        <f>F361-previous!F361</f>
+        <v>1.127233436459818E-4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>23</v>
       </c>
@@ -55817,8 +57262,12 @@
         <f>E362-previous!E362</f>
         <v>-6.0373886691410528E-3</v>
       </c>
-    </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T362">
+        <f>F362-previous!F362</f>
+        <v>-2.1812591591149344E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>25</v>
       </c>
@@ -55877,8 +57326,12 @@
         <f>E363-previous!E363</f>
         <v>1.9581450517629495E-3</v>
       </c>
-    </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T363">
+        <f>F363-previous!F363</f>
+        <v>2.0758726501939329E-3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>25</v>
       </c>
@@ -55937,8 +57390,12 @@
         <f>E364-previous!E364</f>
         <v>8.6174224266000188E-4</v>
       </c>
-    </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T364">
+        <f>F364-previous!F364</f>
+        <v>1.3825659842000571E-3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>27</v>
       </c>
@@ -55997,8 +57454,12 @@
         <f>E365-previous!E365</f>
         <v>3.1849128165860607E-3</v>
       </c>
-    </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T365">
+        <f>F365-previous!F365</f>
+        <v>4.5142392526730246E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>27</v>
       </c>
@@ -56057,8 +57518,12 @@
         <f>E366-previous!E366</f>
         <v>2.0697102363579356E-3</v>
       </c>
-    </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T366">
+        <f>F366-previous!F366</f>
+        <v>2.2946027062690222E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>29</v>
       </c>
@@ -56117,8 +57582,12 @@
         <f>E367-previous!E367</f>
         <v>-3.2596119739939367E-3</v>
       </c>
-    </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T367">
+        <f>F367-previous!F367</f>
+        <v>3.1292453147502286E-4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>29</v>
       </c>
@@ -56177,8 +57646,12 @@
         <f>E368-previous!E368</f>
         <v>4.8388465338000675E-4</v>
       </c>
-    </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T368">
+        <f>F368-previous!F368</f>
+        <v>2.753053987572085E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>31</v>
       </c>
@@ -56237,8 +57710,12 @@
         <f>E369-previous!E369</f>
         <v>2.9973938135759992E-3</v>
       </c>
-    </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T369">
+        <f>F369-previous!F369</f>
+        <v>1.9342041489689432E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>33</v>
       </c>
@@ -56297,8 +57774,12 @@
         <f>E370-previous!E370</f>
         <v>-4.25347096124018E-4</v>
       </c>
-    </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T370">
+        <f>F370-previous!F370</f>
+        <v>-1.2017812930760208E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>35</v>
       </c>
@@ -56357,8 +57838,12 @@
         <f>E371-previous!E371</f>
         <v>3.2629897654959938E-3</v>
       </c>
-    </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T371">
+        <f>F371-previous!F371</f>
+        <v>1.590850165039015E-3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>35</v>
       </c>
@@ -56417,8 +57902,12 @@
         <f>E372-previous!E372</f>
         <v>3.5655184805105655E-4</v>
       </c>
-    </row>
-    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T372">
+        <f>F372-previous!F372</f>
+        <v>-8.6322231274027494E-5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>37</v>
       </c>
@@ -56477,8 +57966,12 @@
         <f>E373-previous!E373</f>
         <v>9.3722273318197491E-4</v>
       </c>
-    </row>
-    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T373">
+        <f>F373-previous!F373</f>
+        <v>1.0176945006440397E-3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>37</v>
       </c>
@@ -56537,8 +58030,12 @@
         <f>E374-previous!E374</f>
         <v>-2.0187295183299314E-4</v>
       </c>
-    </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T374">
+        <f>F374-previous!F374</f>
+        <v>-1.881099686115939E-3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>39</v>
       </c>
@@ -56597,8 +58094,12 @@
         <f>E375-previous!E375</f>
         <v>1.3392867894920224E-3</v>
       </c>
-    </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T375">
+        <f>F375-previous!F375</f>
+        <v>-8.8345532433597995E-4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>39</v>
       </c>
@@ -56657,8 +58158,12 @@
         <f>E376-previous!E376</f>
         <v>1.6851073612680345E-3</v>
       </c>
-    </row>
-    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T376">
+        <f>F376-previous!F376</f>
+        <v>-1.2339494337400003E-3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>41</v>
       </c>
@@ -56717,8 +58222,12 @@
         <f>E377-previous!E377</f>
         <v>7.5804097631879674E-3</v>
       </c>
-    </row>
-    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T377">
+        <f>F377-previous!F377</f>
+        <v>2.6274312857330617E-3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>41</v>
       </c>
@@ -56777,8 +58286,12 @@
         <f>E378-previous!E378</f>
         <v>-6.7152808306303324E-4</v>
       </c>
-    </row>
-    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T378">
+        <f>F378-previous!F378</f>
+        <v>-1.9345035043180081E-3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>43</v>
       </c>
@@ -56837,8 +58350,12 @@
         <f>E379-previous!E379</f>
         <v>-3.0460501939899576E-4</v>
       </c>
-    </row>
-    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T379">
+        <f>F379-previous!F379</f>
+        <v>-2.8692567681398717E-4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>43</v>
       </c>
@@ -56897,8 +58414,12 @@
         <f>E380-previous!E380</f>
         <v>-5.1960874321910211E-5</v>
       </c>
-    </row>
-    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T380">
+        <f>F380-previous!F380</f>
+        <v>-1.0308623821009277E-4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>45</v>
       </c>
@@ -56957,8 +58478,12 @@
         <f>E381-previous!E381</f>
         <v>-3.9044586637093648E-4</v>
       </c>
-    </row>
-    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T381">
+        <f>F381-previous!F381</f>
+        <v>-1.1195668161400052E-3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>45</v>
       </c>
@@ -57017,8 +58542,12 @@
         <f>E382-previous!E382</f>
         <v>4.2751339419000445E-5</v>
       </c>
-    </row>
-    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T382">
+        <f>F382-previous!F382</f>
+        <v>5.9748189083941305E-5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>45</v>
       </c>
@@ -57077,8 +58606,12 @@
         <f>E383-previous!E383</f>
         <v>-1.0525440818498488E-4</v>
       </c>
-    </row>
-    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T383">
+        <f>F383-previous!F383</f>
+        <v>-3.9244251363002025E-4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>47</v>
       </c>
@@ -57137,8 +58670,12 @@
         <f>E384-previous!E384</f>
         <v>-7.3853876046923006E-2</v>
       </c>
-    </row>
-    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T384">
+        <f>F384-previous!F384</f>
+        <v>-2.5479620911824985E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>47</v>
       </c>
@@ -57197,8 +58734,12 @@
         <f>E385-previous!E385</f>
         <v>-3.1434037140834037E-2</v>
       </c>
-    </row>
-    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T385">
+        <f>F385-previous!F385</f>
+        <v>-2.0683922729459736E-3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>49</v>
       </c>
@@ -57257,8 +58798,12 @@
         <f>E386-previous!E386</f>
         <v>-1.1374296785404692E-4</v>
       </c>
-    </row>
-    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T386">
+        <f>F386-previous!F386</f>
+        <v>-1.0274645969199359E-4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>49</v>
       </c>
@@ -57317,8 +58862,12 @@
         <f>E387-previous!E387</f>
         <v>5.8876760351989077E-5</v>
       </c>
-    </row>
-    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T387">
+        <f>F387-previous!F387</f>
+        <v>1.5908964122601787E-4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>51</v>
       </c>
@@ -57377,8 +58926,12 @@
         <f>E388-previous!E388</f>
         <v>-5.7244121819000071E-4</v>
       </c>
-    </row>
-    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T388">
+        <f>F388-previous!F388</f>
+        <v>5.4766799918404274E-4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>51</v>
       </c>
@@ -57437,8 +58990,12 @@
         <f>E389-previous!E389</f>
         <v>6.5049312140508242E-4</v>
       </c>
-    </row>
-    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T389">
+        <f>F389-previous!F389</f>
+        <v>-1.2622222380980208E-3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>53</v>
       </c>
@@ -57497,8 +59054,12 @@
         <f>E390-previous!E390</f>
         <v>-3.4776854904194909E-4</v>
       </c>
-    </row>
-    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T390">
+        <f>F390-previous!F390</f>
+        <v>-3.871163931300492E-4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>53</v>
       </c>
@@ -57557,8 +59118,12 @@
         <f>E391-previous!E391</f>
         <v>-4.4744559747500467E-4</v>
       </c>
-    </row>
-    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T391">
+        <f>F391-previous!F391</f>
+        <v>1.3104454412499189E-4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>55</v>
       </c>
@@ -57617,8 +59182,12 @@
         <f>E392-previous!E392</f>
         <v>4.8937457908393434E-4</v>
       </c>
-    </row>
-    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T392">
+        <f>F392-previous!F392</f>
+        <v>3.8031161204199471E-4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>55</v>
       </c>
@@ -57677,8 +59246,12 @@
         <f>E393-previous!E393</f>
         <v>4.8104189528941355E-5</v>
       </c>
-    </row>
-    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T393">
+        <f>F393-previous!F393</f>
+        <v>8.740937165996332E-5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>57</v>
       </c>
@@ -57737,8 +59310,12 @@
         <f>E394-previous!E394</f>
         <v>1.3318270465800808E-4</v>
       </c>
-    </row>
-    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T394">
+        <f>F394-previous!F394</f>
+        <v>7.2787140126928662E-5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>57</v>
       </c>
@@ -57797,8 +59374,12 @@
         <f>E395-previous!E395</f>
         <v>-6.3911556717921592E-5</v>
       </c>
-    </row>
-    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T395">
+        <f>F395-previous!F395</f>
+        <v>-2.9521302104984493E-5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>57</v>
       </c>
@@ -57857,8 +59438,12 @@
         <f>E396-previous!E396</f>
         <v>1.3319656936694457E-4</v>
       </c>
-    </row>
-    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T396">
+        <f>F396-previous!F396</f>
+        <v>7.2787140126928662E-5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>59</v>
       </c>
@@ -57917,8 +59502,12 @@
         <f>E397-previous!E397</f>
         <v>2.3294488442959782E-5</v>
       </c>
-    </row>
-    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T397">
+        <f>F397-previous!F397</f>
+        <v>6.7969584553018159E-5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>59</v>
       </c>
@@ -57977,8 +59566,12 @@
         <f>E398-previous!E398</f>
         <v>-2.0808987328924111E-5</v>
       </c>
-    </row>
-    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T398">
+        <f>F398-previous!F398</f>
+        <v>-1.9535781976998123E-5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>59</v>
       </c>
@@ -58037,8 +59630,12 @@
         <f>E399-previous!E399</f>
         <v>-1.2663397673889909E-3</v>
       </c>
-    </row>
-    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T399">
+        <f>F399-previous!F399</f>
+        <v>-1.6613488576299185E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>61</v>
       </c>
@@ -58097,8 +59694,12 @@
         <f>E400-previous!E400</f>
         <v>1.5681438424397509E-4</v>
       </c>
-    </row>
-    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T400">
+        <f>F400-previous!F400</f>
+        <v>2.3537635184001093E-4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>61</v>
       </c>
@@ -58157,8 +59758,12 @@
         <f>E401-previous!E401</f>
         <v>2.4740908556897256E-4</v>
       </c>
-    </row>
-    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T401">
+        <f>F401-previous!F401</f>
+        <v>2.9412899764491574E-4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>61</v>
       </c>
@@ -58217,8 +59822,12 @@
         <f>E402-previous!E402</f>
         <v>5.6330028946005584E-5</v>
       </c>
-    </row>
-    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T402">
+        <f>F402-previous!F402</f>
+        <v>2.9235943510697027E-4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>63</v>
       </c>
@@ -58277,8 +59886,12 @@
         <f>E403-previous!E403</f>
         <v>2.4120132026794749E-4</v>
       </c>
-    </row>
-    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T403">
+        <f>F403-previous!F403</f>
+        <v>4.3159202625697723E-4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>63</v>
       </c>
@@ -58337,8 +59950,12 @@
         <f>E404-previous!E404</f>
         <v>1.4019610209692335E-4</v>
       </c>
-    </row>
-    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T404">
+        <f>F404-previous!F404</f>
+        <v>3.1491894263002695E-4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>63</v>
       </c>
@@ -58397,8 +60014,12 @@
         <f>E405-previous!E405</f>
         <v>1.3509389159094276E-4</v>
       </c>
-    </row>
-    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T405">
+        <f>F405-previous!F405</f>
+        <v>3.8917807817295813E-4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>65</v>
       </c>
@@ -58457,8 +60078,12 @@
         <f>E406-previous!E406</f>
         <v>6.7464024894298147E-4</v>
       </c>
-    </row>
-    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T406">
+        <f>F406-previous!F406</f>
+        <v>7.5492583930597545E-4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>65</v>
       </c>
@@ -58517,8 +60142,12 @@
         <f>E407-previous!E407</f>
         <v>1.1246797834608968E-4</v>
       </c>
-    </row>
-    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T407">
+        <f>F407-previous!F407</f>
+        <v>2.3427870160597219E-4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>65</v>
       </c>
@@ -58577,8 +60206,12 @@
         <f>E408-previous!E408</f>
         <v>1.3133792585040549E-4</v>
       </c>
-    </row>
-    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T408">
+        <f>F408-previous!F408</f>
+        <v>-3.7582753488601961E-4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>67</v>
       </c>
@@ -58637,8 +60270,12 @@
         <f>E409-previous!E409</f>
         <v>7.1267178670675335E-6</v>
       </c>
-    </row>
-    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T409">
+        <f>F409-previous!F409</f>
+        <v>5.8488709378967663E-5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>67</v>
       </c>
@@ -58697,8 +60334,12 @@
         <f>E410-previous!E410</f>
         <v>-7.2101106969313378E-6</v>
       </c>
-    </row>
-    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T410">
+        <f>F410-previous!F410</f>
+        <v>-9.3664395017789559E-8</v>
+      </c>
+    </row>
+    <row r="411" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>67</v>
       </c>
@@ -58757,8 +60398,12 @@
         <f>E411-previous!E411</f>
         <v>-7.6706757956501725E-4</v>
       </c>
-    </row>
-    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T411">
+        <f>F411-previous!F411</f>
+        <v>-1.0004679053169374E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>69</v>
       </c>
@@ -58817,8 +60462,12 @@
         <f>E412-previous!E412</f>
         <v>-8.882090365897044E-5</v>
       </c>
-    </row>
-    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T412">
+        <f>F412-previous!F412</f>
+        <v>8.583625689129043E-4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>69</v>
       </c>
@@ -58877,8 +60526,12 @@
         <f>E413-previous!E413</f>
         <v>-6.3524929529990004E-6</v>
       </c>
-    </row>
-    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T413">
+        <f>F413-previous!F413</f>
+        <v>9.6544522895603002E-4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>69</v>
       </c>
@@ -58937,8 +60590,12 @@
         <f>E414-previous!E414</f>
         <v>-5.0289643191703259E-4</v>
       </c>
-    </row>
-    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T414">
+        <f>F414-previous!F414</f>
+        <v>7.470039927340022E-4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>71</v>
       </c>
@@ -58997,8 +60654,12 @@
         <f>E415-previous!E415</f>
         <v>1.4172294944692077E-4</v>
       </c>
-    </row>
-    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T415">
+        <f>F415-previous!F415</f>
+        <v>7.6268244209798386E-4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>71</v>
       </c>
@@ -59057,8 +60718,12 @@
         <f>E416-previous!E416</f>
         <v>-2.5880670729838684E-6</v>
       </c>
-    </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T416">
+        <f>F416-previous!F416</f>
+        <v>5.2822077230008091E-6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>71</v>
       </c>
@@ -59117,8 +60782,12 @@
         <f>E417-previous!E417</f>
         <v>-6.3718995635297926E-4</v>
       </c>
-    </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T417">
+        <f>F417-previous!F417</f>
+        <v>-7.2436776490392152E-4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>73</v>
       </c>
@@ -59177,8 +60846,12 @@
         <f>E418-previous!E418</f>
         <v>7.6962432309035655E-5</v>
       </c>
-    </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T418">
+        <f>F418-previous!F418</f>
+        <v>1.6815245435997106E-4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>73</v>
       </c>
@@ -59237,8 +60910,12 @@
         <f>E419-previous!E419</f>
         <v>-2.7134421942021092E-5</v>
       </c>
-    </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T419">
+        <f>F419-previous!F419</f>
+        <v>8.1974184901967284E-5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>73</v>
       </c>
@@ -59297,8 +60974,12 @@
         <f>E420-previous!E420</f>
         <v>4.2211686115201097E-4</v>
       </c>
-    </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T420">
+        <f>F420-previous!F420</f>
+        <v>2.6637867392098613E-4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>75</v>
       </c>
@@ -59357,8 +61038,12 @@
         <f>E421-previous!E421</f>
         <v>-9.0243266150091817E-7</v>
       </c>
-    </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T421">
+        <f>F421-previous!F421</f>
+        <v>-2.2330923332103403E-4</v>
+      </c>
+    </row>
+    <row r="422" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>75</v>
       </c>
@@ -59417,8 +61102,12 @@
         <f>E422-previous!E422</f>
         <v>-1.6772086638972006E-5</v>
       </c>
-    </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T422">
+        <f>F422-previous!F422</f>
+        <v>9.9984877644954118E-5</v>
+      </c>
+    </row>
+    <row r="423" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>75</v>
       </c>
@@ -59477,8 +61166,12 @@
         <f>E423-previous!E423</f>
         <v>5.5836855778701455E-4</v>
       </c>
-    </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T423">
+        <f>F423-previous!F423</f>
+        <v>2.6092835124702507E-4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>77</v>
       </c>
@@ -59537,8 +61230,12 @@
         <f>E424-previous!E424</f>
         <v>-3.4472466064056073E-6</v>
       </c>
-    </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T424">
+        <f>F424-previous!F424</f>
+        <v>-5.1781134571199372E-4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>77</v>
       </c>
@@ -59597,8 +61294,12 @@
         <f>E425-previous!E425</f>
         <v>-2.1105227066969823E-6</v>
       </c>
-    </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T425">
+        <f>F425-previous!F425</f>
+        <v>2.3720414473193951E-4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>77</v>
       </c>
@@ -59657,8 +61358,12 @@
         <f>E426-previous!E426</f>
         <v>3.6794592510699942E-4</v>
       </c>
-    </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T426">
+        <f>F426-previous!F426</f>
+        <v>1.0678813932710751E-3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>8</v>
       </c>
@@ -59717,8 +61422,12 @@
         <f>E427-previous!E427</f>
         <v>7.709040578796067E-5</v>
       </c>
-    </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T427">
+        <f>F427-previous!F427</f>
+        <v>1.862365579370362E-4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>8</v>
       </c>
@@ -59777,8 +61486,12 @@
         <f>E428-previous!E428</f>
         <v>-5.0295885537954277E-5</v>
       </c>
-    </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T428">
+        <f>F428-previous!F428</f>
+        <v>1.8134353787491175E-4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>8</v>
       </c>
@@ -59837,8 +61550,12 @@
         <f>E429-previous!E429</f>
         <v>2.9587924574892011E-4</v>
       </c>
-    </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T429">
+        <f>F429-previous!F429</f>
+        <v>2.2104084927998535E-4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>11</v>
       </c>
@@ -59897,8 +61614,12 @@
         <f>E430-previous!E430</f>
         <v>8.9139882127498016E-4</v>
       </c>
-    </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T430">
+        <f>F430-previous!F430</f>
+        <v>-8.3862506560106187E-4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>11</v>
       </c>
@@ -59957,8 +61678,12 @@
         <f>E431-previous!E431</f>
         <v>-6.3979251721002495E-4</v>
       </c>
-    </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T431">
+        <f>F431-previous!F431</f>
+        <v>-8.0808107338860014E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>11</v>
       </c>
@@ -60017,8 +61742,12 @@
         <f>E432-previous!E432</f>
         <v>8.0252659228202683E-4</v>
       </c>
-    </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T432">
+        <f>F432-previous!F432</f>
+        <v>1.701796148779966E-3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>13</v>
       </c>
@@ -60077,8 +61806,12 @@
         <f>E433-previous!E433</f>
         <v>5.4679300037929757E-3</v>
       </c>
-    </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T433">
+        <f>F433-previous!F433</f>
+        <v>-2.7851812863399772E-4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>13</v>
       </c>
@@ -60137,8 +61870,12 @@
         <f>E434-previous!E434</f>
         <v>4.0918381741594789E-4</v>
       </c>
-    </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T434">
+        <f>F434-previous!F434</f>
+        <v>1.3411925163470118E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>13</v>
       </c>
@@ -60197,8 +61934,12 @@
         <f>E435-previous!E435</f>
         <v>1.726049823996989E-3</v>
       </c>
-    </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T435">
+        <f>F435-previous!F435</f>
+        <v>-4.8548918524030649E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>15</v>
       </c>
@@ -60257,8 +61998,12 @@
         <f>E436-previous!E436</f>
         <v>-3.3989472152629041E-3</v>
       </c>
-    </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T436">
+        <f>F436-previous!F436</f>
+        <v>-4.8879413037409281E-3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>15</v>
       </c>
@@ -60317,8 +62062,12 @@
         <f>E437-previous!E437</f>
         <v>-3.4880693620750192E-3</v>
       </c>
-    </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T437">
+        <f>F437-previous!F437</f>
+        <v>-5.9866428062804733E-4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>15</v>
       </c>
@@ -60377,8 +62126,12 @@
         <f>E438-previous!E438</f>
         <v>-9.3758335855598229E-4</v>
       </c>
-    </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T438">
+        <f>F438-previous!F438</f>
+        <v>-1.5697227851649842E-3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>17</v>
       </c>
@@ -60437,8 +62190,12 @@
         <f>E439-previous!E439</f>
         <v>-7.3527643691062572E-5</v>
       </c>
-    </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T439">
+        <f>F439-previous!F439</f>
+        <v>-1.6634032934503828E-4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>17</v>
       </c>
@@ -60497,8 +62254,12 @@
         <f>E440-previous!E440</f>
         <v>4.2739877379016633E-5</v>
       </c>
-    </row>
-    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T440">
+        <f>F440-previous!F440</f>
+        <v>1.0256269225394909E-4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>17</v>
       </c>
@@ -60557,8 +62318,12 @@
         <f>E441-previous!E441</f>
         <v>-1.3106696648002014E-5</v>
       </c>
-    </row>
-    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T441">
+        <f>F441-previous!F441</f>
+        <v>-8.8027574300042488E-5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>19</v>
       </c>
@@ -60617,8 +62382,12 @@
         <f>E442-previous!E442</f>
         <v>3.5740107710013902E-5</v>
       </c>
-    </row>
-    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T442">
+        <f>F442-previous!F442</f>
+        <v>8.9279972243061501E-5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>19</v>
       </c>
@@ -60677,8 +62446,12 @@
         <f>E443-previous!E443</f>
         <v>-6.6232766119389552E-6</v>
       </c>
-    </row>
-    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T443">
+        <f>F443-previous!F443</f>
+        <v>-2.2079184209822245E-6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>19</v>
       </c>
@@ -60737,8 +62510,12 @@
         <f>E444-previous!E444</f>
         <v>3.3811224339608259E-4</v>
       </c>
-    </row>
-    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T444">
+        <f>F444-previous!F444</f>
+        <v>4.4983882102600514E-4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>21</v>
       </c>
@@ -60797,8 +62574,12 @@
         <f>E445-previous!E445</f>
         <v>-3.6345784868207692E-2</v>
       </c>
-    </row>
-    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T445">
+        <f>F445-previous!F445</f>
+        <v>-1.5478666831700294E-4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>21</v>
       </c>
@@ -60857,8 +62638,12 @@
         <f>E446-previous!E446</f>
         <v>-1.6194517080597715E-4</v>
       </c>
-    </row>
-    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T446">
+        <f>F446-previous!F446</f>
+        <v>-4.8508644374900545E-4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>23</v>
       </c>
@@ -60917,8 +62702,12 @@
         <f>E447-previous!E447</f>
         <v>5.9734110337206214E-4</v>
       </c>
-    </row>
-    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T447">
+        <f>F447-previous!F447</f>
+        <v>2.6381655380702806E-4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>25</v>
       </c>
@@ -60977,8 +62766,12 @@
         <f>E448-previous!E448</f>
         <v>1.7554550179980088E-3</v>
       </c>
-    </row>
-    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T448">
+        <f>F448-previous!F448</f>
+        <v>1.9645746119849594E-3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>25</v>
       </c>
@@ -61037,8 +62830,12 @@
         <f>E449-previous!E449</f>
         <v>1.1098165786230796E-3</v>
       </c>
-    </row>
-    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T449">
+        <f>F449-previous!F449</f>
+        <v>2.4055539452360053E-3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>27</v>
       </c>
@@ -61097,8 +62894,12 @@
         <f>E450-previous!E450</f>
         <v>2.0709491127209878E-3</v>
       </c>
-    </row>
-    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T450">
+        <f>F450-previous!F450</f>
+        <v>3.6842027448240611E-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>27</v>
       </c>
@@ -61157,8 +62958,12 @@
         <f>E451-previous!E451</f>
         <v>2.0890889437129578E-3</v>
       </c>
-    </row>
-    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T451">
+        <f>F451-previous!F451</f>
+        <v>2.4566075785900088E-3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>29</v>
       </c>
@@ -61217,8 +63022,12 @@
         <f>E452-previous!E452</f>
         <v>-3.3842367655900762E-4</v>
       </c>
-    </row>
-    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T452">
+        <f>F452-previous!F452</f>
+        <v>-1.0819634289200852E-3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>29</v>
       </c>
@@ -61277,8 +63086,12 @@
         <f>E453-previous!E453</f>
         <v>-5.8164376994401801E-4</v>
       </c>
-    </row>
-    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T453">
+        <f>F453-previous!F453</f>
+        <v>-2.0972811448904949E-4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>31</v>
       </c>
@@ -61337,8 +63150,12 @@
         <f>E454-previous!E454</f>
         <v>4.5262443836739941E-3</v>
       </c>
-    </row>
-    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T454">
+        <f>F454-previous!F454</f>
+        <v>3.5950837665730262E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>33</v>
       </c>
@@ -61397,8 +63214,12 @@
         <f>E455-previous!E455</f>
         <v>3.9062517692201038E-4</v>
       </c>
-    </row>
-    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T455">
+        <f>F455-previous!F455</f>
+        <v>1.9641324134900273E-4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>35</v>
       </c>
@@ -61457,8 +63278,12 @@
         <f>E456-previous!E456</f>
         <v>4.3673531434995638E-4</v>
       </c>
-    </row>
-    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T456">
+        <f>F456-previous!F456</f>
+        <v>3.3452142576395616E-4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>35</v>
       </c>
@@ -61517,8 +63342,12 @@
         <f>E457-previous!E457</f>
         <v>7.3197755202991654E-4</v>
       </c>
-    </row>
-    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T457">
+        <f>F457-previous!F457</f>
+        <v>2.9600421819597766E-4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>37</v>
       </c>
@@ -61577,8 +63406,12 @@
         <f>E458-previous!E458</f>
         <v>9.9875389320702723E-4</v>
       </c>
-    </row>
-    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T458">
+        <f>F458-previous!F458</f>
+        <v>2.3396323364690552E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>37</v>
       </c>
@@ -61637,8 +63470,12 @@
         <f>E459-previous!E459</f>
         <v>-2.79492406242976E-4</v>
       </c>
-    </row>
-    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T459">
+        <f>F459-previous!F459</f>
+        <v>-3.6724282713530565E-3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>39</v>
       </c>
@@ -61697,8 +63534,12 @@
         <f>E460-previous!E460</f>
         <v>1.4555628292550749E-3</v>
       </c>
-    </row>
-    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T460">
+        <f>F460-previous!F460</f>
+        <v>7.5247259028299318E-4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>39</v>
       </c>
@@ -61757,8 +63598,12 @@
         <f>E461-previous!E461</f>
         <v>1.7748174784679716E-3</v>
       </c>
-    </row>
-    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T461">
+        <f>F461-previous!F461</f>
+        <v>-4.3170234297496002E-4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>41</v>
       </c>
@@ -61817,8 +63662,12 @@
         <f>E462-previous!E462</f>
         <v>7.5332789677395873E-4</v>
       </c>
-    </row>
-    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T462">
+        <f>F462-previous!F462</f>
+        <v>2.9013466171891045E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>41</v>
       </c>
@@ -61877,8 +63726,12 @@
         <f>E463-previous!E463</f>
         <v>2.979222000559778E-4</v>
       </c>
-    </row>
-    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T463">
+        <f>F463-previous!F463</f>
+        <v>1.7932472526770438E-3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>43</v>
       </c>
@@ -61937,8 +63790,12 @@
         <f>E464-previous!E464</f>
         <v>2.8308878166420359E-3</v>
       </c>
-    </row>
-    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T464">
+        <f>F464-previous!F464</f>
+        <v>2.5531533464019929E-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>43</v>
       </c>
@@ -61997,8 +63854,12 @@
         <f>E465-previous!E465</f>
         <v>-1.3023616837970486E-5</v>
       </c>
-    </row>
-    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T465">
+        <f>F465-previous!F465</f>
+        <v>-4.9983041160994723E-5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>45</v>
       </c>
@@ -62057,8 +63918,12 @@
         <f>E466-previous!E466</f>
         <v>3.2881964172504219E-4</v>
       </c>
-    </row>
-    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T466">
+        <f>F466-previous!F466</f>
+        <v>-5.9580093641931064E-5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>45</v>
       </c>
@@ -62117,8 +63982,12 @@
         <f>E467-previous!E467</f>
         <v>7.69241221750816E-5</v>
       </c>
-    </row>
-    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T467">
+        <f>F467-previous!F467</f>
+        <v>5.9372687447933892E-5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>45</v>
       </c>
@@ -62177,8 +64046,12 @@
         <f>E468-previous!E468</f>
         <v>7.0591802624797584E-4</v>
       </c>
-    </row>
-    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T468">
+        <f>F468-previous!F468</f>
+        <v>8.369335271689593E-4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>47</v>
       </c>
@@ -62237,8 +64110,12 @@
         <f>E469-previous!E469</f>
         <v>-5.6067281130856017E-2</v>
       </c>
-    </row>
-    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T469">
+        <f>F469-previous!F469</f>
+        <v>-1.1983974775529982E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>47</v>
       </c>
@@ -62297,8 +64174,12 @@
         <f>E470-previous!E470</f>
         <v>-3.4221121731266013E-2</v>
       </c>
-    </row>
-    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T470">
+        <f>F470-previous!F470</f>
+        <v>-2.7576000560410874E-3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>49</v>
       </c>
@@ -62357,8 +64238,12 @@
         <f>E471-previous!E471</f>
         <v>5.9373533116025001E-5</v>
       </c>
-    </row>
-    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T471">
+        <f>F471-previous!F471</f>
+        <v>2.7500163760096896E-4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>49</v>
       </c>
@@ -62417,8 +64302,12 @@
         <f>E472-previous!E472</f>
         <v>4.9433187706104942E-4</v>
       </c>
-    </row>
-    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T472">
+        <f>F472-previous!F472</f>
+        <v>8.3489053585195094E-4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>51</v>
       </c>
@@ -62477,8 +64366,12 @@
         <f>E473-previous!E473</f>
         <v>4.4215342066300511E-4</v>
       </c>
-    </row>
-    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T473">
+        <f>F473-previous!F473</f>
+        <v>1.9950694505489475E-3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>51</v>
       </c>
@@ -62537,8 +64430,12 @@
         <f>E474-previous!E474</f>
         <v>9.9736206212897027E-4</v>
       </c>
-    </row>
-    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T474">
+        <f>F474-previous!F474</f>
+        <v>-9.7820789430302924E-4</v>
+      </c>
+    </row>
+    <row r="475" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>53</v>
       </c>
@@ -62597,8 +64494,12 @@
         <f>E475-previous!E475</f>
         <v>5.3811535421799395E-4</v>
       </c>
-    </row>
-    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T475">
+        <f>F475-previous!F475</f>
+        <v>2.2954604283180191E-3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>53</v>
       </c>
@@ -62657,8 +64558,12 @@
         <f>E476-previous!E476</f>
         <v>-1.9946222233591104E-4</v>
       </c>
-    </row>
-    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T476">
+        <f>F476-previous!F476</f>
+        <v>8.5186142506699092E-4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>55</v>
       </c>
@@ -62717,8 +64622,12 @@
         <f>E477-previous!E477</f>
         <v>7.2945902679033559E-5</v>
       </c>
-    </row>
-    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T477">
+        <f>F477-previous!F477</f>
+        <v>5.1262167787946566E-5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>55</v>
       </c>
@@ -62777,8 +64686,12 @@
         <f>E478-previous!E478</f>
         <v>8.25614931080354E-5</v>
       </c>
-    </row>
-    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T478">
+        <f>F478-previous!F478</f>
+        <v>1.3129839837899837E-4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>57</v>
       </c>
@@ -62837,8 +64750,12 @@
         <f>E479-previous!E479</f>
         <v>1.3881667113291307E-4</v>
       </c>
-    </row>
-    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T479">
+        <f>F479-previous!F479</f>
+        <v>6.502319936996237E-5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>57</v>
       </c>
@@ -62897,8 +64814,12 @@
         <f>E480-previous!E480</f>
         <v>-7.0454170881029121E-5</v>
       </c>
-    </row>
-    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T480">
+        <f>F480-previous!F480</f>
+        <v>-3.2079387395911318E-5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>57</v>
       </c>
@@ -62957,8 +64878,12 @@
         <f>E481-previous!E481</f>
         <v>1.3883268360104228E-4</v>
       </c>
-    </row>
-    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T481">
+        <f>F481-previous!F481</f>
+        <v>6.502319936996237E-5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>59</v>
       </c>
@@ -63017,8 +64942,12 @@
         <f>E482-previous!E482</f>
         <v>2.2128965262990796E-5</v>
       </c>
-    </row>
-    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T482">
+        <f>F482-previous!F482</f>
+        <v>8.3161059993952513E-5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>59</v>
       </c>
@@ -63077,8 +65006,12 @@
         <f>E483-previous!E483</f>
         <v>-2.1700172101013493E-5</v>
       </c>
-    </row>
-    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T483">
+        <f>F483-previous!F483</f>
+        <v>-2.4418924037927781E-5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>59</v>
       </c>
@@ -63137,8 +65070,12 @@
         <f>E484-previous!E484</f>
         <v>-1.3377035757660138E-3</v>
       </c>
-    </row>
-    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T484">
+        <f>F484-previous!F484</f>
+        <v>-1.7536248398219989E-3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>61</v>
       </c>
@@ -63197,8 +65134,12 @@
         <f>E485-previous!E485</f>
         <v>1.3970198060198058E-4</v>
       </c>
-    </row>
-    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T485">
+        <f>F485-previous!F485</f>
+        <v>2.2455828487100149E-4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>61</v>
       </c>
@@ -63257,8 +65198,12 @@
         <f>E486-previous!E486</f>
         <v>2.7127679843397257E-4</v>
       </c>
-    </row>
-    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T486">
+        <f>F486-previous!F486</f>
+        <v>3.2473614156691699E-4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>61</v>
       </c>
@@ -63317,8 +65262,12 @@
         <f>E487-previous!E487</f>
         <v>4.1745570185991454E-5</v>
       </c>
-    </row>
-    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T487">
+        <f>F487-previous!F487</f>
+        <v>2.6075341551601294E-4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>63</v>
       </c>
@@ -63377,8 +65326,12 @@
         <f>E488-previous!E488</f>
         <v>2.5617187603099723E-4</v>
       </c>
-    </row>
-    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T488">
+        <f>F488-previous!F488</f>
+        <v>4.4392296147599541E-4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>63</v>
       </c>
@@ -63437,8 +65390,12 @@
         <f>E489-previous!E489</f>
         <v>1.5370941879500055E-4</v>
       </c>
-    </row>
-    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T489">
+        <f>F489-previous!F489</f>
+        <v>3.4073010127100289E-4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>63</v>
       </c>
@@ -63497,8 +65454,12 @@
         <f>E490-previous!E490</f>
         <v>1.3171503768705239E-4</v>
       </c>
-    </row>
-    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T490">
+        <f>F490-previous!F490</f>
+        <v>3.8099466518604075E-4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>65</v>
       </c>
@@ -63557,8 +65518,12 @@
         <f>E491-previous!E491</f>
         <v>7.059912787810152E-4</v>
       </c>
-    </row>
-    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T491">
+        <f>F491-previous!F491</f>
+        <v>7.7110504518096423E-4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>65</v>
       </c>
@@ -63617,8 +65582,12 @@
         <f>E492-previous!E492</f>
         <v>1.2627104109109999E-4</v>
       </c>
-    </row>
-    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T492">
+        <f>F492-previous!F492</f>
+        <v>2.6464558136407579E-4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>65</v>
       </c>
@@ -63677,8 +65646,12 @@
         <f>E493-previous!E493</f>
         <v>1.2935559202850722E-4</v>
       </c>
-    </row>
-    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T493">
+        <f>F493-previous!F493</f>
+        <v>-4.1751601708500674E-4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>67</v>
       </c>
@@ -63737,8 +65710,12 @@
         <f>E494-previous!E494</f>
         <v>6.4254598010071717E-6</v>
       </c>
-    </row>
-    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T494">
+        <f>F494-previous!F494</f>
+        <v>5.4120137824020809E-5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>67</v>
       </c>
@@ -63797,8 +65774,12 @@
         <f>E495-previous!E495</f>
         <v>-7.7663258299942584E-6</v>
       </c>
-    </row>
-    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T495">
+        <f>F495-previous!F495</f>
+        <v>-5.2726979069550595E-6</v>
+      </c>
+    </row>
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>67</v>
       </c>
@@ -63857,8 +65838,12 @@
         <f>E496-previous!E496</f>
         <v>-8.1623130929708854E-4</v>
       </c>
-    </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T496">
+        <f>F496-previous!F496</f>
+        <v>-1.049225506054019E-3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>69</v>
       </c>
@@ -63917,8 +65902,12 @@
         <f>E497-previous!E497</f>
         <v>-8.9437867101971325E-5</v>
       </c>
-    </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T497">
+        <f>F497-previous!F497</f>
+        <v>9.0903413653879717E-4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>69</v>
       </c>
@@ -63977,8 +65966,12 @@
         <f>E498-previous!E498</f>
         <v>-1.8983051431997744E-5</v>
       </c>
-    </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T498">
+        <f>F498-previous!F498</f>
+        <v>1.0035561444019514E-3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>69</v>
       </c>
@@ -64037,8 +66030,12 @@
         <f>E499-previous!E499</f>
         <v>-5.0452568449299573E-4</v>
       </c>
-    </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T499">
+        <f>F499-previous!F499</f>
+        <v>8.0487505260198877E-4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>71</v>
       </c>
@@ -64097,8 +66094,12 @@
         <f>E500-previous!E500</f>
         <v>1.4588022398209777E-4</v>
       </c>
-    </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T500">
+        <f>F500-previous!F500</f>
+        <v>7.9106057981104261E-4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>71</v>
       </c>
@@ -64157,8 +66158,12 @@
         <f>E501-previous!E501</f>
         <v>-2.9444517740673248E-6</v>
       </c>
-    </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T501">
+        <f>F501-previous!F501</f>
+        <v>1.6255207230253532E-6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>71</v>
       </c>
@@ -64217,8 +66222,12 @@
         <f>E502-previous!E502</f>
         <v>-6.7819761524201549E-4</v>
       </c>
-    </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T502">
+        <f>F502-previous!F502</f>
+        <v>-7.5906992379493055E-4</v>
+      </c>
+    </row>
+    <row r="503" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>73</v>
       </c>
@@ -64277,8 +66286,12 @@
         <f>E503-previous!E503</f>
         <v>7.5773210232998878E-5</v>
       </c>
-    </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T503">
+        <f>F503-previous!F503</f>
+        <v>1.868689851181049E-4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>73</v>
       </c>
@@ -64337,8 +66350,12 @@
         <f>E504-previous!E504</f>
         <v>-3.3715514768051236E-5</v>
       </c>
-    </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T504">
+        <f>F504-previous!F504</f>
+        <v>8.2781984079960402E-5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>73</v>
       </c>
@@ -64397,8 +66414,12 @@
         <f>E505-previous!E505</f>
         <v>4.4099894054094868E-4</v>
       </c>
-    </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T505">
+        <f>F505-previous!F505</f>
+        <v>2.6586892190605393E-4</v>
+      </c>
+    </row>
+    <row r="506" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>75</v>
       </c>
@@ -64457,8 +66478,12 @@
         <f>E506-previous!E506</f>
         <v>-2.1135934080013241E-6</v>
       </c>
-    </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T506">
+        <f>F506-previous!F506</f>
+        <v>-2.3865559266300629E-4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>75</v>
       </c>
@@ -64517,8 +66542,12 @@
         <f>E507-previous!E507</f>
         <v>-2.2776569878035779E-5</v>
       </c>
-    </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T507">
+        <f>F507-previous!F507</f>
+        <v>9.876506995809553E-5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>75</v>
       </c>
@@ -64577,8 +66606,12 @@
         <f>E508-previous!E508</f>
         <v>5.6216287684796029E-4</v>
       </c>
-    </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T508">
+        <f>F508-previous!F508</f>
+        <v>2.6020325078301987E-4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>77</v>
       </c>
@@ -64637,8 +66670,12 @@
         <f>E509-previous!E509</f>
         <v>-5.6403822520090241E-6</v>
       </c>
-    </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T509">
+        <f>F509-previous!F509</f>
+        <v>-5.40065354035002E-4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>77</v>
       </c>
@@ -64697,8 +66734,12 @@
         <f>E510-previous!E510</f>
         <v>-6.7478880598006996E-6</v>
       </c>
-    </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T510">
+        <f>F510-previous!F510</f>
+        <v>2.3378905552101648E-4</v>
+      </c>
+    </row>
+    <row r="511" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>77</v>
       </c>
@@ -64757,8 +66798,12 @@
         <f>E511-previous!E511</f>
         <v>4.0606074022700445E-4</v>
       </c>
-    </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T511">
+        <f>F511-previous!F511</f>
+        <v>1.1074517970179887E-3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>8</v>
       </c>
@@ -64817,8 +66862,12 @@
         <f>E512-previous!E512</f>
         <v>8.5717428440990062E-5</v>
       </c>
-    </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T512">
+        <f>F512-previous!F512</f>
+        <v>-2.4873665442903814E-5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>8</v>
       </c>
@@ -64877,8 +66926,12 @@
         <f>E513-previous!E513</f>
         <v>-5.8290079188005883E-5</v>
       </c>
-    </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T513">
+        <f>F513-previous!F513</f>
+        <v>-7.6811549560074077E-5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>8</v>
       </c>
@@ -64937,8 +66990,12 @@
         <f>E514-previous!E514</f>
         <v>2.4215456517195921E-4</v>
       </c>
-    </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T514">
+        <f>F514-previous!F514</f>
+        <v>-1.1472173737703262E-4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>11</v>
       </c>
@@ -64997,8 +67054,12 @@
         <f>E515-previous!E515</f>
         <v>7.0987268671407477E-4</v>
       </c>
-    </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T515">
+        <f>F515-previous!F515</f>
+        <v>-5.906926638939991E-4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>11</v>
       </c>
@@ -65057,8 +67118,12 @@
         <f>E516-previous!E516</f>
         <v>-9.5962062210797061E-4</v>
       </c>
-    </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T516">
+        <f>F516-previous!F516</f>
+        <v>-7.0610568433150389E-3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>11</v>
       </c>
@@ -65117,8 +67182,12 @@
         <f>E517-previous!E517</f>
         <v>4.405058738439771E-4</v>
       </c>
-    </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T517">
+        <f>F517-previous!F517</f>
+        <v>1.350341370339958E-3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>13</v>
       </c>
@@ -65177,8 +67246,12 @@
         <f>E518-previous!E518</f>
         <v>5.2930304653769911E-3</v>
       </c>
-    </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T518">
+        <f>F518-previous!F518</f>
+        <v>-1.704210694759567E-4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>13</v>
       </c>
@@ -65237,8 +67310,12 @@
         <f>E519-previous!E519</f>
         <v>3.9766206210800625E-4</v>
       </c>
-    </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T519">
+        <f>F519-previous!F519</f>
+        <v>1.6940636386739705E-3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>13</v>
       </c>
@@ -65297,8 +67374,12 @@
         <f>E520-previous!E520</f>
         <v>1.4899802402760232E-3</v>
       </c>
-    </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T520">
+        <f>F520-previous!F520</f>
+        <v>-4.3607681467369153E-3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>15</v>
       </c>
@@ -65357,8 +67438,12 @@
         <f>E521-previous!E521</f>
         <v>-2.9514191052659733E-3</v>
       </c>
-    </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T521">
+        <f>F521-previous!F521</f>
+        <v>-4.0962665744860294E-3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>15</v>
       </c>
@@ -65417,8 +67502,12 @@
         <f>E522-previous!E522</f>
         <v>-3.1497028831980467E-3</v>
       </c>
-    </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T522">
+        <f>F522-previous!F522</f>
+        <v>-1.0001434973310186E-3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>15</v>
       </c>
@@ -65477,8 +67566,12 @@
         <f>E523-previous!E523</f>
         <v>-6.1892857034101523E-4</v>
       </c>
-    </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T523">
+        <f>F523-previous!F523</f>
+        <v>-8.4212730394594981E-4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>17</v>
       </c>
@@ -65537,8 +67630,12 @@
         <f>E524-previous!E524</f>
         <v>-9.9571530190911695E-5</v>
       </c>
-    </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T524">
+        <f>F524-previous!F524</f>
+        <v>-1.6629619010199992E-4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>17</v>
       </c>
@@ -65597,8 +67694,12 @@
         <f>E525-previous!E525</f>
         <v>1.8022755090996156E-5</v>
       </c>
-    </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T525">
+        <f>F525-previous!F525</f>
+        <v>2.3421211035046241E-5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>17</v>
       </c>
@@ -65657,8 +67758,12 @@
         <f>E526-previous!E526</f>
         <v>-1.919381303929768E-4</v>
       </c>
-    </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T526">
+        <f>F526-previous!F526</f>
+        <v>-2.7701486604103653E-4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>19</v>
       </c>
@@ -65717,8 +67822,12 @@
         <f>E527-previous!E527</f>
         <v>-6.5797910380083202E-5</v>
       </c>
-    </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T527">
+        <f>F527-previous!F527</f>
+        <v>-5.1053156418068291E-5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>19</v>
       </c>
@@ -65777,8 +67886,12 @@
         <f>E528-previous!E528</f>
         <v>6.9915415710219975E-6</v>
       </c>
-    </row>
-    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T528">
+        <f>F528-previous!F528</f>
+        <v>-1.8518823585944588E-5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>19</v>
       </c>
@@ -65837,8 +67950,12 @@
         <f>E529-previous!E529</f>
         <v>-3.0572510556692301E-4</v>
       </c>
-    </row>
-    <row r="530" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T529">
+        <f>F529-previous!F529</f>
+        <v>-2.8835956113693051E-4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>21</v>
       </c>
@@ -65897,8 +68014,12 @@
         <f>E530-previous!E530</f>
         <v>-1.8512046919870004E-2</v>
       </c>
-    </row>
-    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T530">
+        <f>F530-previous!F530</f>
+        <v>-2.158657006984005E-3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>21</v>
       </c>
@@ -65957,8 +68078,12 @@
         <f>E531-previous!E531</f>
         <v>-1.3019850530399113E-4</v>
       </c>
-    </row>
-    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T531">
+        <f>F531-previous!F531</f>
+        <v>7.1114096529933946E-5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>23</v>
       </c>
@@ -66017,8 +68142,12 @@
         <f>E532-previous!E532</f>
         <v>-5.8124869276160451E-3</v>
       </c>
-    </row>
-    <row r="533" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T532">
+        <f>F532-previous!F532</f>
+        <v>-1.0726797959639267E-3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>25</v>
       </c>
@@ -66077,8 +68206,12 @@
         <f>E533-previous!E533</f>
         <v>2.5897993175649781E-3</v>
       </c>
-    </row>
-    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T533">
+        <f>F533-previous!F533</f>
+        <v>2.6448171753480354E-3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>25</v>
       </c>
@@ -66137,8 +68270,12 @@
         <f>E534-previous!E534</f>
         <v>8.2666924453600465E-4</v>
       </c>
-    </row>
-    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T534">
+        <f>F534-previous!F534</f>
+        <v>1.1531081578899371E-3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>27</v>
       </c>
@@ -66197,8 +68334,12 @@
         <f>E535-previous!E535</f>
         <v>3.2228734740119558E-3</v>
       </c>
-    </row>
-    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T535">
+        <f>F535-previous!F535</f>
+        <v>4.4915141698590455E-3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>27</v>
       </c>
@@ -66257,8 +68398,12 @@
         <f>E536-previous!E536</f>
         <v>2.0215609090100672E-3</v>
       </c>
-    </row>
-    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T536">
+        <f>F536-previous!F536</f>
+        <v>2.0174259661830396E-3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>29</v>
       </c>
@@ -66317,8 +68462,12 @@
         <f>E537-previous!E537</f>
         <v>-5.1480460674420137E-3</v>
       </c>
-    </row>
-    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T537">
+        <f>F537-previous!F537</f>
+        <v>-8.3366705222021054E-5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>29</v>
       </c>
@@ -66377,8 +68526,12 @@
         <f>E538-previous!E538</f>
         <v>3.1836832354803501E-4</v>
       </c>
-    </row>
-    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T538">
+        <f>F538-previous!F538</f>
+        <v>1.3381598712249865E-3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>31</v>
       </c>
@@ -66437,8 +68590,12 @@
         <f>E539-previous!E539</f>
         <v>-1.9591146735159493E-3</v>
       </c>
-    </row>
-    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T539">
+        <f>F539-previous!F539</f>
+        <v>8.4166375779004543E-4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>33</v>
       </c>
@@ -66497,8 +68654,12 @@
         <f>E540-previous!E540</f>
         <v>4.3834512260598757E-4</v>
       </c>
-    </row>
-    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T540">
+        <f>F540-previous!F540</f>
+        <v>-3.3230820538199257E-4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>35</v>
       </c>
@@ -66557,8 +68718,12 @@
         <f>E541-previous!E541</f>
         <v>3.023717373292989E-3</v>
       </c>
-    </row>
-    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T541">
+        <f>F541-previous!F541</f>
+        <v>1.3685976045190174E-3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>35</v>
       </c>
@@ -66617,8 +68782,12 @@
         <f>E542-previous!E542</f>
         <v>2.5971901661503427E-4</v>
       </c>
-    </row>
-    <row r="543" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T542">
+        <f>F542-previous!F542</f>
+        <v>-4.8657689124997905E-4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>37</v>
       </c>
@@ -66677,8 +68846,12 @@
         <f>E543-previous!E543</f>
         <v>2.6140265712000232E-3</v>
       </c>
-    </row>
-    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T543">
+        <f>F543-previous!F543</f>
+        <v>3.324136579771042E-3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>37</v>
       </c>
@@ -66737,8 +68910,12 @@
         <f>E544-previous!E544</f>
         <v>-1.8499810621702695E-4</v>
       </c>
-    </row>
-    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T544">
+        <f>F544-previous!F544</f>
+        <v>-2.0121050249090056E-3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>39</v>
       </c>
@@ -66797,8 +68974,12 @@
         <f>E545-previous!E545</f>
         <v>1.2385616791200649E-3</v>
       </c>
-    </row>
-    <row r="546" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T545">
+        <f>F545-previous!F545</f>
+        <v>-1.1371608770610608E-3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>39</v>
       </c>
@@ -66857,8 +69038,12 @@
         <f>E546-previous!E546</f>
         <v>1.6736961776220305E-3</v>
       </c>
-    </row>
-    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T546">
+        <f>F546-previous!F546</f>
+        <v>-1.4304514870550067E-3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>41</v>
       </c>
@@ -66917,8 +69102,12 @@
         <f>E547-previous!E547</f>
         <v>6.5105855045080041E-3</v>
       </c>
-    </row>
-    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T547">
+        <f>F547-previous!F547</f>
+        <v>2.8353063074749718E-3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>41</v>
       </c>
@@ -66977,8 +69166,12 @@
         <f>E548-previous!E548</f>
         <v>-6.8137570104398471E-4</v>
       </c>
-    </row>
-    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T548">
+        <f>F548-previous!F548</f>
+        <v>-2.06959523186101E-3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>43</v>
       </c>
@@ -67037,8 +69230,12 @@
         <f>E549-previous!E549</f>
         <v>-2.6959152163602562E-4</v>
       </c>
-    </row>
-    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T549">
+        <f>F549-previous!F549</f>
+        <v>-3.0815236717401939E-4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>43</v>
       </c>
@@ -67097,8 +69294,12 @@
         <f>E550-previous!E550</f>
         <v>-4.7652565625999621E-5</v>
       </c>
-    </row>
-    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T550">
+        <f>F550-previous!F550</f>
+        <v>-8.867681879198841E-5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>45</v>
       </c>
@@ -67157,8 +69358,12 @@
         <f>E551-previous!E551</f>
         <v>-3.5853626700799168E-4</v>
       </c>
-    </row>
-    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T551">
+        <f>F551-previous!F551</f>
+        <v>-1.0294981788290247E-3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>45</v>
       </c>
@@ -67217,8 +69422,12 @@
         <f>E552-previous!E552</f>
         <v>3.5992792288941367E-5</v>
       </c>
-    </row>
-    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T552">
+        <f>F552-previous!F552</f>
+        <v>4.8320499405951622E-5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>45</v>
       </c>
@@ -67277,8 +69486,12 @@
         <f>E553-previous!E553</f>
         <v>-3.3593417774979706E-5</v>
       </c>
-    </row>
-    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T553">
+        <f>F553-previous!F553</f>
+        <v>-2.3280490412391774E-4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>47</v>
       </c>
@@ -67337,8 +69550,12 @@
         <f>E554-previous!E554</f>
         <v>-4.9949704039490006E-2</v>
       </c>
-    </row>
-    <row r="555" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T554">
+        <f>F554-previous!F554</f>
+        <v>-1.7312090232752986E-2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>47</v>
       </c>
@@ -67397,8 +69614,12 @@
         <f>E555-previous!E555</f>
         <v>-3.0557055666520005E-2</v>
       </c>
-    </row>
-    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T555">
+        <f>F555-previous!F555</f>
+        <v>-2.4520328709499717E-3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>49</v>
       </c>
@@ -67457,8 +69678,12 @@
         <f>E556-previous!E556</f>
         <v>-1.1482022212794263E-4</v>
       </c>
-    </row>
-    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T556">
+        <f>F556-previous!F556</f>
+        <v>-1.091030044300112E-4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>49</v>
       </c>
@@ -67517,8 +69742,12 @@
         <f>E557-previous!E557</f>
         <v>4.7674155149945996E-5</v>
       </c>
-    </row>
-    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T557">
+        <f>F557-previous!F557</f>
+        <v>1.3136423189996638E-4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>51</v>
       </c>
@@ -67577,8 +69806,12 @@
         <f>E558-previous!E558</f>
         <v>-4.3503688690593734E-4</v>
       </c>
-    </row>
-    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T558">
+        <f>F558-previous!F558</f>
+        <v>1.1271742172480614E-3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>51</v>
       </c>
@@ -67637,8 +69870,12 @@
         <f>E559-previous!E559</f>
         <v>6.1701889344800698E-4</v>
       </c>
-    </row>
-    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T559">
+        <f>F559-previous!F559</f>
+        <v>-1.379452555964944E-3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>53</v>
       </c>
@@ -67697,8 +69934,12 @@
         <f>E560-previous!E560</f>
         <v>-3.6206428817597835E-4</v>
       </c>
-    </row>
-    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T560">
+        <f>F560-previous!F560</f>
+        <v>-3.1946243326003154E-4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>53</v>
       </c>
@@ -67757,8 +69998,12 @@
         <f>E561-previous!E561</f>
         <v>-4.2380826137999872E-4</v>
       </c>
-    </row>
-    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T561">
+        <f>F561-previous!F561</f>
+        <v>8.8822902762020206E-5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>55</v>
       </c>
@@ -67817,8 +70062,12 @@
         <f>E562-previous!E562</f>
         <v>4.7516711450301674E-4</v>
       </c>
-    </row>
-    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T562">
+        <f>F562-previous!F562</f>
+        <v>3.6997140478500778E-4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>55</v>
       </c>
@@ -67877,8 +70126,12 @@
         <f>E563-previous!E563</f>
         <v>4.464773507206754E-5</v>
       </c>
-    </row>
-    <row r="564" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T563">
+        <f>F563-previous!F563</f>
+        <v>7.4536893201027077E-5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>57</v>
       </c>
@@ -67937,8 +70190,12 @@
         <f>E564-previous!E564</f>
         <v>1.2588678284397581E-4</v>
       </c>
-    </row>
-    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T564">
+        <f>F564-previous!F564</f>
+        <v>7.041887303804728E-5</v>
+      </c>
+    </row>
+    <row r="565" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>57</v>
       </c>
@@ -67997,8 +70254,12 @@
         <f>E565-previous!E565</f>
         <v>-5.6203873046944963E-5</v>
       </c>
-    </row>
-    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T565">
+        <f>F565-previous!F565</f>
+        <v>-3.0051210984094467E-5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>57</v>
       </c>
@@ -68057,8 +70318,12 @@
         <f>E566-previous!E566</f>
         <v>1.2589967536802416E-4</v>
       </c>
-    </row>
-    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T566">
+        <f>F566-previous!F566</f>
+        <v>7.041887303804728E-5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>59</v>
       </c>
@@ -68117,8 +70382,12 @@
         <f>E567-previous!E567</f>
         <v>2.2166659773059649E-5</v>
       </c>
-    </row>
-    <row r="568" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T567">
+        <f>F567-previous!F567</f>
+        <v>6.2036916482988147E-5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>59</v>
       </c>
@@ -68177,8 +70446,12 @@
         <f>E568-previous!E568</f>
         <v>-1.9134220211047825E-5</v>
       </c>
-    </row>
-    <row r="569" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T568">
+        <f>F568-previous!F568</f>
+        <v>-2.1740760833943718E-5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>59</v>
       </c>
@@ -68237,8 +70510,12 @@
         <f>E569-previous!E569</f>
         <v>-1.2050028263410617E-3</v>
       </c>
-    </row>
-    <row r="570" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T569">
+        <f>F569-previous!F569</f>
+        <v>-1.6014090406250014E-3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>61</v>
       </c>
@@ -68297,8 +70574,12 @@
         <f>E570-previous!E570</f>
         <v>1.5050621379009144E-4</v>
       </c>
-    </row>
-    <row r="571" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T570">
+        <f>F570-previous!F570</f>
+        <v>2.3029314726497052E-4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>61</v>
       </c>
@@ -68357,8 +70638,12 @@
         <f>E571-previous!E571</f>
         <v>2.1308464096403412E-4</v>
       </c>
-    </row>
-    <row r="572" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T571">
+        <f>F571-previous!F571</f>
+        <v>2.5687253452899572E-4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>61</v>
       </c>
@@ -68417,8 +70702,12 @@
         <f>E572-previous!E572</f>
         <v>6.5126330607956362E-5</v>
       </c>
-    </row>
-    <row r="573" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T572">
+        <f>F572-previous!F572</f>
+        <v>2.9888676992395613E-4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>63</v>
       </c>
@@ -68477,8 +70766,12 @@
         <f>E573-previous!E573</f>
         <v>2.1381981197099442E-4</v>
       </c>
-    </row>
-    <row r="574" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T573">
+        <f>F573-previous!F573</f>
+        <v>4.0919514524895284E-4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
         <v>63</v>
       </c>
@@ -68537,8 +70830,12 @@
         <f>E574-previous!E574</f>
         <v>1.2164780713697088E-4</v>
       </c>
-    </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T574">
+        <f>F574-previous!F574</f>
+        <v>2.7689201751301962E-4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>63</v>
       </c>
@@ -68597,8 +70894,12 @@
         <f>E575-previous!E575</f>
         <v>1.3486547624796952E-4</v>
       </c>
-    </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T575">
+        <f>F575-previous!F575</f>
+        <v>3.7695173595697629E-4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>65</v>
       </c>
@@ -68657,8 +70958,12 @@
         <f>E576-previous!E576</f>
         <v>6.2218085893400721E-4</v>
       </c>
-    </row>
-    <row r="577" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T576">
+        <f>F576-previous!F576</f>
+        <v>7.2723521478101905E-4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
         <v>65</v>
       </c>
@@ -68717,8 +71022,12 @@
         <f>E577-previous!E577</f>
         <v>9.448649615791116E-5</v>
       </c>
-    </row>
-    <row r="578" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T577">
+        <f>F577-previous!F577</f>
+        <v>1.8671273295101098E-4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
         <v>65</v>
       </c>
@@ -68777,8 +71086,12 @@
         <f>E578-previous!E578</f>
         <v>1.2863911036879727E-4</v>
       </c>
-    </row>
-    <row r="579" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T578">
+        <f>F578-previous!F578</f>
+        <v>-3.4769632891396007E-4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
         <v>67</v>
       </c>
@@ -68837,8 +71150,12 @@
         <f>E579-previous!E579</f>
         <v>6.3842363670074675E-6</v>
       </c>
-    </row>
-    <row r="580" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T579">
+        <f>F579-previous!F579</f>
+        <v>4.8426846154914216E-5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
         <v>67</v>
       </c>
@@ -68897,8 +71214,12 @@
         <f>E580-previous!E580</f>
         <v>-6.4434990159067951E-6</v>
       </c>
-    </row>
-    <row r="581" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T580">
+        <f>F580-previous!F580</f>
+        <v>-1.6205320310103133E-6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>67</v>
       </c>
@@ -68957,8 +71278,12 @@
         <f>E581-previous!E581</f>
         <v>-7.2369657556203837E-4</v>
       </c>
-    </row>
-    <row r="582" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T581">
+        <f>F581-previous!F581</f>
+        <v>-9.7678733626205272E-4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
         <v>69</v>
       </c>
@@ -69017,8 +71342,12 @@
         <f>E582-previous!E582</f>
         <v>-8.789982363099913E-5</v>
       </c>
-    </row>
-    <row r="583" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T582">
+        <f>F582-previous!F582</f>
+        <v>8.3476402404069477E-4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
         <v>69</v>
       </c>
@@ -69077,8 +71406,12 @@
         <f>E583-previous!E583</f>
         <v>9.5404343490312904E-6</v>
       </c>
-    </row>
-    <row r="584" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T583">
+        <f>F583-previous!F583</f>
+        <v>8.6781048954098772E-4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
         <v>69</v>
       </c>
@@ -69137,8 +71470,12 @@
         <f>E584-previous!E584</f>
         <v>-5.0103637838500026E-4</v>
       </c>
-    </row>
-    <row r="585" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T584">
+        <f>F584-previous!F584</f>
+        <v>7.2892185921200059E-4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
         <v>71</v>
       </c>
@@ -69197,8 +71534,12 @@
         <f>E585-previous!E585</f>
         <v>1.3767020362098759E-4</v>
       </c>
-    </row>
-    <row r="586" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T585">
+        <f>F585-previous!F585</f>
+        <v>7.3726701370491199E-4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
         <v>71</v>
       </c>
@@ -69257,8 +71598,12 @@
         <f>E586-previous!E586</f>
         <v>-2.142249100001159E-6</v>
       </c>
-    </row>
-    <row r="587" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T586">
+        <f>F586-previous!F586</f>
+        <v>3.2899939960140401E-6</v>
+      </c>
+    </row>
+    <row r="587" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>71</v>
       </c>
@@ -69317,8 +71662,12 @@
         <f>E587-previous!E587</f>
         <v>-5.9875508834594804E-4</v>
       </c>
-    </row>
-    <row r="588" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T587">
+        <f>F587-previous!F587</f>
+        <v>-7.141468108911031E-4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
         <v>73</v>
       </c>
@@ -69377,8 +71726,12 @@
         <f>E588-previous!E588</f>
         <v>7.4927937564028824E-5</v>
       </c>
-    </row>
-    <row r="589" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T588">
+        <f>F588-previous!F588</f>
+        <v>1.6944812040298185E-4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
         <v>73</v>
       </c>
@@ -69437,8 +71790,12 @@
         <f>E589-previous!E589</f>
         <v>-2.2061278934004669E-5</v>
       </c>
-    </row>
-    <row r="590" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T589">
+        <f>F589-previous!F589</f>
+        <v>6.9300598350974241E-5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
         <v>73</v>
       </c>
@@ -69497,8 +71854,12 @@
         <f>E590-previous!E590</f>
         <v>4.0887044180004661E-4</v>
       </c>
-    </row>
-    <row r="591" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T590">
+        <f>F590-previous!F590</f>
+        <v>2.6531609972402226E-4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
         <v>75</v>
       </c>
@@ -69557,8 +71918,12 @@
         <f>E591-previous!E591</f>
         <v>9.4618994940509626E-7</v>
       </c>
-    </row>
-    <row r="592" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T591">
+        <f>F591-previous!F591</f>
+        <v>-2.2245370315499002E-4</v>
+      </c>
+    </row>
+    <row r="592" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
         <v>75</v>
       </c>
@@ -69617,8 +71982,12 @@
         <f>E592-previous!E592</f>
         <v>-1.2690616345012451E-5</v>
       </c>
-    </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T592">
+        <f>F592-previous!F592</f>
+        <v>8.483372126200095E-5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
         <v>75</v>
       </c>
@@ -69677,8 +72046,12 @@
         <f>E593-previous!E593</f>
         <v>5.3060124353310201E-4</v>
       </c>
-    </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T593">
+        <f>F593-previous!F593</f>
+        <v>2.5968449377800074E-4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
         <v>77</v>
       </c>
@@ -69737,8 +72110,12 @@
         <f>E594-previous!E594</f>
         <v>-9.8173261399436829E-7</v>
       </c>
-    </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T594">
+        <f>F594-previous!F594</f>
+        <v>-5.1630873219798978E-4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>77</v>
       </c>
@@ -69797,8 +72174,12 @@
         <f>E595-previous!E595</f>
         <v>2.7024090532012934E-6</v>
       </c>
-    </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T595">
+        <f>F595-previous!F595</f>
+        <v>2.0463129451797624E-4</v>
+      </c>
+    </row>
+    <row r="596" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>77</v>
       </c>
@@ -69856,6 +72237,10 @@
       <c r="S596">
         <f>E596-previous!E596</f>
         <v>3.4851881576000721E-4</v>
+      </c>
+      <c r="T596">
+        <f>F596-previous!F596</f>
+        <v>1.0066302940090477E-3</v>
       </c>
     </row>
   </sheetData>
